--- a/Experiments_1B/03_RecombinationOperators/Drop-Wave/curves.xlsx
+++ b/Experiments_1B/03_RecombinationOperators/Drop-Wave/curves.xlsx
@@ -444,10 +444,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.8491411875356267</v>
+        <v>-0.8630814164892285</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8533971177458475</v>
+        <v>-0.8620743377142805</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.8809016692008527</v>
+        <v>-0.8910112695756657</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8793052389173271</v>
+        <v>-0.8824987878522031</v>
       </c>
     </row>
     <row r="4">
@@ -466,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9070841105273864</v>
+        <v>-0.9009803330913287</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.905606872835848</v>
+        <v>-0.9067412109831454</v>
       </c>
     </row>
     <row r="5">
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.9207709284419359</v>
+        <v>-0.9093641509697767</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9122673817450182</v>
+        <v>-0.9178805660759792</v>
       </c>
     </row>
     <row r="6">
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.9254740514920925</v>
+        <v>-0.9188970353120735</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9212897668455996</v>
+        <v>-0.9224097610105786</v>
       </c>
     </row>
     <row r="7">
@@ -499,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9298452518778022</v>
+        <v>-0.9250284420029534</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9263723170053183</v>
+        <v>-0.9271249987075718</v>
       </c>
     </row>
     <row r="8">
@@ -510,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.9320832904184687</v>
+        <v>-0.9298303864150905</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9277002244022428</v>
+        <v>-0.9289011339082713</v>
       </c>
     </row>
     <row r="9">
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.9348575922336056</v>
+        <v>-0.9319320824813346</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9305955440934955</v>
+        <v>-0.9322441308600357</v>
       </c>
     </row>
     <row r="10">
@@ -532,10 +532,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9361217080587018</v>
+        <v>-0.9325546054281985</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.9325654955766113</v>
+        <v>-0.9333408922063368</v>
       </c>
     </row>
     <row r="11">
@@ -543,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.937045348664482</v>
+        <v>-0.9337846614445475</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9352400939293156</v>
+        <v>-0.9344305755208832</v>
       </c>
     </row>
     <row r="12">
@@ -554,10 +554,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.9376681431602063</v>
+        <v>-0.9343937213509926</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.9353614407941586</v>
+        <v>-0.9350244525636607</v>
       </c>
     </row>
     <row r="13">
@@ -565,10 +565,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.9382222938402167</v>
+        <v>-0.9354928148841618</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9361638249369878</v>
+        <v>-0.9352435777260284</v>
       </c>
     </row>
     <row r="14">
@@ -576,10 +576,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.9390297134439307</v>
+        <v>-0.9363283874598544</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.9382679136055998</v>
+        <v>-0.9369563467531242</v>
       </c>
     </row>
     <row r="15">
@@ -587,10 +587,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9396989032700048</v>
+        <v>-0.9371159042615075</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.9383806504147981</v>
+        <v>-0.9371911989857883</v>
       </c>
     </row>
     <row r="16">
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.9401357997586531</v>
+        <v>-0.9373311853470244</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.9391611496627233</v>
+        <v>-0.9372554313737338</v>
       </c>
     </row>
     <row r="17">
@@ -609,10 +609,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.9401881614361989</v>
+        <v>-0.9376346227417136</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.9395968551252097</v>
+        <v>-0.9382578918497285</v>
       </c>
     </row>
     <row r="18">
@@ -620,10 +620,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.9401881614361989</v>
+        <v>-0.9383210488182963</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.9410512271162114</v>
+        <v>-0.9390391463755187</v>
       </c>
     </row>
     <row r="19">
@@ -631,10 +631,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.9407624775661171</v>
+        <v>-0.9389940730543352</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.9415276458616126</v>
+        <v>-0.9391218564069024</v>
       </c>
     </row>
     <row r="20">
@@ -642,10 +642,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9412105767823692</v>
+        <v>-0.9390258078871608</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.941867746589131</v>
+        <v>-0.9391994946381559</v>
       </c>
     </row>
     <row r="21">
@@ -653,10 +653,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.9413016339575878</v>
+        <v>-0.9394146867184133</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.9420811280626651</v>
+        <v>-0.9393316598448865</v>
       </c>
     </row>
     <row r="22">
@@ -664,10 +664,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.9419628936922342</v>
+        <v>-0.9406109460902137</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.9432323451467043</v>
+        <v>-0.9394782706963215</v>
       </c>
     </row>
     <row r="23">
@@ -675,10 +675,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.9421645045463319</v>
+        <v>-0.9413784948255162</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.9433100177952354</v>
+        <v>-0.9396548492535345</v>
       </c>
     </row>
     <row r="24">
@@ -686,10 +686,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.9423936024903093</v>
+        <v>-0.9419438335944287</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.9433648543238468</v>
+        <v>-0.9398237063889539</v>
       </c>
     </row>
     <row r="25">
@@ -697,10 +697,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.9432627903432702</v>
+        <v>-0.9424621789362058</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.9435004855474789</v>
+        <v>-0.9398546692389474</v>
       </c>
     </row>
     <row r="26">
@@ -708,10 +708,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.9432669732231814</v>
+        <v>-0.9425452877418303</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.9439048960325452</v>
+        <v>-0.940211226868837</v>
       </c>
     </row>
     <row r="27">
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.9433755271951516</v>
+        <v>-0.9437271223312707</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.9441386988511199</v>
+        <v>-0.9405010573079974</v>
       </c>
     </row>
     <row r="28">
@@ -730,10 +730,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.9441190143367479</v>
+        <v>-0.9437426992136468</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.944424111339742</v>
+        <v>-0.9405943342085886</v>
       </c>
     </row>
     <row r="29">
@@ -741,10 +741,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.9441388254131772</v>
+        <v>-0.9438221628938472</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.9449063581465473</v>
+        <v>-0.9415865202524807</v>
       </c>
     </row>
     <row r="30">
@@ -752,10 +752,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.9441388254131772</v>
+        <v>-0.9439899253294521</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.9453297387164035</v>
+        <v>-0.9423585782162276</v>
       </c>
     </row>
     <row r="31">
@@ -763,10 +763,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.94433323503142</v>
+        <v>-0.943989972818148</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.945800202360233</v>
+        <v>-0.9430006792203272</v>
       </c>
     </row>
     <row r="32">
@@ -774,10 +774,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.9443338420779963</v>
+        <v>-0.9444279345270865</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.9466634496508797</v>
+        <v>-0.9435864595916671</v>
       </c>
     </row>
     <row r="33">
@@ -785,10 +785,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.9448237663883663</v>
+        <v>-0.9446337573810087</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.947191030602174</v>
+        <v>-0.9441495306951402</v>
       </c>
     </row>
     <row r="34">
@@ -796,10 +796,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.9451309059036973</v>
+        <v>-0.9449282584983254</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.9475507766893934</v>
+        <v>-0.9442881041799516</v>
       </c>
     </row>
     <row r="35">
@@ -807,10 +807,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.945322006170677</v>
+        <v>-0.945373088869106</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.9477317910781851</v>
+        <v>-0.9448963494705025</v>
       </c>
     </row>
     <row r="36">
@@ -818,10 +818,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.9458448185100977</v>
+        <v>-0.9458007122433206</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.9477653205094083</v>
+        <v>-0.944898836993612</v>
       </c>
     </row>
     <row r="37">
@@ -829,10 +829,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.9459763406734012</v>
+        <v>-0.9462325275294705</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.9489162158317391</v>
+        <v>-0.945470889665298</v>
       </c>
     </row>
     <row r="38">
@@ -840,10 +840,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.9459765344818328</v>
+        <v>-0.9462472233415834</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.9491370343536896</v>
+        <v>-0.945470889665298</v>
       </c>
     </row>
     <row r="39">
@@ -851,10 +851,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.9459803825145204</v>
+        <v>-0.9469080384360601</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.9494527815563762</v>
+        <v>-0.9462045321327563</v>
       </c>
     </row>
     <row r="40">
@@ -862,10 +862,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.9460844886636601</v>
+        <v>-0.9475512132611571</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.9497365485464784</v>
+        <v>-0.9464402228554918</v>
       </c>
     </row>
     <row r="41">
@@ -873,10 +873,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.9466359114447765</v>
+        <v>-0.9475512132611571</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.9510451165420578</v>
+        <v>-0.9468446385242505</v>
       </c>
     </row>
     <row r="42">
@@ -884,10 +884,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.9466439449545487</v>
+        <v>-0.9479289104781192</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.9510938243289118</v>
+        <v>-0.947031221952314</v>
       </c>
     </row>
     <row r="43">
@@ -895,10 +895,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.947063064270191</v>
+        <v>-0.9484612766044868</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.951116075358781</v>
+        <v>-0.9482481261012771</v>
       </c>
     </row>
     <row r="44">
@@ -906,10 +906,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.947063064270191</v>
+        <v>-0.9485356284036131</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.9518661028164217</v>
+        <v>-0.9482529855070347</v>
       </c>
     </row>
     <row r="45">
@@ -917,10 +917,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.9471983769864962</v>
+        <v>-0.948575064717469</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.9522615015316909</v>
+        <v>-0.9482529855070347</v>
       </c>
     </row>
     <row r="46">
@@ -928,10 +928,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.9475590001906247</v>
+        <v>-0.9497954688001572</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.9523860815341141</v>
+        <v>-0.948484627361087</v>
       </c>
     </row>
     <row r="47">
@@ -939,10 +939,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9484441127309708</v>
+        <v>-0.9497990421592094</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9529372765526728</v>
+        <v>-0.9501253664960544</v>
       </c>
     </row>
     <row r="48">
@@ -950,10 +950,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.9484441127309708</v>
+        <v>-0.9502396819514223</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.9532560493595906</v>
+        <v>-0.9501276787099264</v>
       </c>
     </row>
     <row r="49">
@@ -961,10 +961,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.9487922689051357</v>
+        <v>-0.9505370510024278</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.953262468885591</v>
+        <v>-0.9504802626356695</v>
       </c>
     </row>
     <row r="50">
@@ -972,10 +972,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.9497200357075178</v>
+        <v>-0.9505370510024278</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.9533700232844747</v>
+        <v>-0.9504911353763807</v>
       </c>
     </row>
     <row r="51">
@@ -983,10 +983,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.9497200357075178</v>
+        <v>-0.9505385641335244</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.9533700232844747</v>
+        <v>-0.950520983736822</v>
       </c>
     </row>
     <row r="52">
@@ -994,10 +994,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.949721453282151</v>
+        <v>-0.951202977440092</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.9538610480081833</v>
+        <v>-0.9510580778542972</v>
       </c>
     </row>
     <row r="53">
@@ -1005,10 +1005,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.9507909269368179</v>
+        <v>-0.951202977440092</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.9546028880526268</v>
+        <v>-0.9512186770449484</v>
       </c>
     </row>
     <row r="54">
@@ -1016,10 +1016,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.9517223107581573</v>
+        <v>-0.9515036618289825</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.9546207284793761</v>
+        <v>-0.9518784491673622</v>
       </c>
     </row>
     <row r="55">
@@ -1027,10 +1027,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.9518421516186389</v>
+        <v>-0.9515068243760245</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.9546240078413442</v>
+        <v>-0.9522287107461131</v>
       </c>
     </row>
     <row r="56">
@@ -1038,10 +1038,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.951981574319881</v>
+        <v>-0.951808389815468</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.9561395687248375</v>
+        <v>-0.9522288896166141</v>
       </c>
     </row>
     <row r="57">
@@ -1049,10 +1049,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9519823077228062</v>
+        <v>-0.9520630719523507</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.9563563339836694</v>
+        <v>-0.9525702389912115</v>
       </c>
     </row>
     <row r="58">
@@ -1060,10 +1060,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.9526301434221264</v>
+        <v>-0.9524181192704729</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.9574092871260644</v>
+        <v>-0.9531118563121143</v>
       </c>
     </row>
     <row r="59">
@@ -1071,10 +1071,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.9530452438454587</v>
+        <v>-0.952726927514728</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.9577110170925764</v>
+        <v>-0.9531119483479007</v>
       </c>
     </row>
     <row r="60">
@@ -1082,10 +1082,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.9535473370416001</v>
+        <v>-0.9528509890732608</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.9577110170925764</v>
+        <v>-0.9531119483479007</v>
       </c>
     </row>
     <row r="61">
@@ -1093,10 +1093,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.9537197055194631</v>
+        <v>-0.9533439317560973</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.9577110170925764</v>
+        <v>-0.9531119483479007</v>
       </c>
     </row>
     <row r="62">
@@ -1104,10 +1104,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.9542985334966241</v>
+        <v>-0.9533496414473178</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.9584381872840362</v>
+        <v>-0.95333034467047</v>
       </c>
     </row>
     <row r="63">
@@ -1115,10 +1115,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.9545970646469871</v>
+        <v>-0.9534118423728505</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.958817137625612</v>
+        <v>-0.9533447669737227</v>
       </c>
     </row>
     <row r="64">
@@ -1126,10 +1126,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9546846016345347</v>
+        <v>-0.9535500250722841</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.9588274165471398</v>
+        <v>-0.9533449040284476</v>
       </c>
     </row>
     <row r="65">
@@ -1137,10 +1137,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.9549514986589379</v>
+        <v>-0.9539143318304979</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.9591688223232478</v>
+        <v>-0.9546020221459108</v>
       </c>
     </row>
     <row r="66">
@@ -1148,10 +1148,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.9549951998417289</v>
+        <v>-0.9539150823860771</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.9597629203295636</v>
+        <v>-0.9558706265380019</v>
       </c>
     </row>
     <row r="67">
@@ -1159,10 +1159,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.9555746930185512</v>
+        <v>-0.9544283779875</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.9598016441923966</v>
+        <v>-0.9563256952757869</v>
       </c>
     </row>
     <row r="68">
@@ -1170,10 +1170,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.9555756222377139</v>
+        <v>-0.954856712317966</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.9599419216562365</v>
+        <v>-0.9563257367042847</v>
       </c>
     </row>
     <row r="69">
@@ -1181,10 +1181,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.9563750958200476</v>
+        <v>-0.9550936035795581</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.9599485330985292</v>
+        <v>-0.9565202686808402</v>
       </c>
     </row>
     <row r="70">
@@ -1192,10 +1192,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.9576796503844569</v>
+        <v>-0.9554217843395366</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.9606384097485511</v>
+        <v>-0.9573566441488485</v>
       </c>
     </row>
     <row r="71">
@@ -1203,10 +1203,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.9577537590812543</v>
+        <v>-0.9554830836982779</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.9606416483338314</v>
+        <v>-0.9573566441488485</v>
       </c>
     </row>
     <row r="72">
@@ -1214,10 +1214,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.9581746854474598</v>
+        <v>-0.9554830836982779</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.9612466467859784</v>
+        <v>-0.9573566441488485</v>
       </c>
     </row>
     <row r="73">
@@ -1225,10 +1225,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.9585687005550012</v>
+        <v>-0.9554830836982779</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.9612466467859784</v>
+        <v>-0.958036137034429</v>
       </c>
     </row>
     <row r="74">
@@ -1236,10 +1236,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.958888655734304</v>
+        <v>-0.9560849703792441</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.9612466467859784</v>
+        <v>-0.9587318833925351</v>
       </c>
     </row>
     <row r="75">
@@ -1247,10 +1247,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.958955483564072</v>
+        <v>-0.9571143942791729</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.9612697729599714</v>
+        <v>-0.9587319029998962</v>
       </c>
     </row>
     <row r="76">
@@ -1258,10 +1258,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.9590783445698442</v>
+        <v>-0.9574379827965624</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.9613437709752314</v>
+        <v>-0.9587885036346545</v>
       </c>
     </row>
     <row r="77">
@@ -1269,10 +1269,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.9590783445698442</v>
+        <v>-0.9577379496897087</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.962533569838021</v>
+        <v>-0.9587891759053038</v>
       </c>
     </row>
     <row r="78">
@@ -1280,10 +1280,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.95914498484481</v>
+        <v>-0.9583215806089016</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.9631673811089473</v>
+        <v>-0.9589749515362604</v>
       </c>
     </row>
     <row r="79">
@@ -1291,10 +1291,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.95914498484481</v>
+        <v>-0.9583542983728576</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.9637840848675419</v>
+        <v>-0.9589749515362604</v>
       </c>
     </row>
     <row r="80">
@@ -1302,10 +1302,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.9595184240864637</v>
+        <v>-0.9593469616448193</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.9643404406017065</v>
+        <v>-0.9589760653338627</v>
       </c>
     </row>
     <row r="81">
@@ -1313,10 +1313,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.9595184240864637</v>
+        <v>-0.9597838741481018</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.9650842226889348</v>
+        <v>-0.9594057778938954</v>
       </c>
     </row>
     <row r="82">
@@ -1324,10 +1324,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.959584876789577</v>
+        <v>-0.9597838741481018</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.9658762102497321</v>
+        <v>-0.9599557630156277</v>
       </c>
     </row>
     <row r="83">
@@ -1335,10 +1335,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.9599131797505736</v>
+        <v>-0.960212329854892</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.9664105093682026</v>
+        <v>-0.9603902130659928</v>
       </c>
     </row>
     <row r="84">
@@ -1346,10 +1346,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.9600310902007601</v>
+        <v>-0.9603327662265866</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.9670298973508001</v>
+        <v>-0.9614708649724616</v>
       </c>
     </row>
     <row r="85">
@@ -1357,10 +1357,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.9607145604721145</v>
+        <v>-0.9603627902872622</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.9674334052340962</v>
+        <v>-0.9614708649724616</v>
       </c>
     </row>
     <row r="86">
@@ -1368,10 +1368,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.9607335337022664</v>
+        <v>-0.9603627902872622</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.9676634399177384</v>
+        <v>-0.9618653936335935</v>
       </c>
     </row>
     <row r="87">
@@ -1379,10 +1379,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.9609529611860816</v>
+        <v>-0.9619713198872202</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.9677778779105154</v>
+        <v>-0.9622337011174504</v>
       </c>
     </row>
     <row r="88">
@@ -1390,10 +1390,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.9609530743855547</v>
+        <v>-0.9625020829662811</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.9677778779105154</v>
+        <v>-0.9622337011174504</v>
       </c>
     </row>
     <row r="89">
@@ -1401,10 +1401,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.9614760063555987</v>
+        <v>-0.9631497778989234</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.9678223601201063</v>
+        <v>-0.9636572747324175</v>
       </c>
     </row>
     <row r="90">
@@ -1412,10 +1412,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.9624396296483227</v>
+        <v>-0.9632807353726434</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.9678223601201063</v>
+        <v>-0.9640280159749608</v>
       </c>
     </row>
     <row r="91">
@@ -1423,10 +1423,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.9635958369803648</v>
+        <v>-0.9632807353726434</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.9687955815715487</v>
+        <v>-0.9646755124520801</v>
       </c>
     </row>
     <row r="92">
@@ -1434,10 +1434,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.9635958369803648</v>
+        <v>-0.9640971905927594</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.9687955815715487</v>
+        <v>-0.9646794555779497</v>
       </c>
     </row>
     <row r="93">
@@ -1445,10 +1445,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.9636752741129443</v>
+        <v>-0.9640971905927594</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.9690606237758627</v>
+        <v>-0.9649856898241391</v>
       </c>
     </row>
     <row r="94">
@@ -1456,10 +1456,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.9640148798524156</v>
+        <v>-0.9640972456292919</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.9693335501751917</v>
+        <v>-0.9649860337512527</v>
       </c>
     </row>
     <row r="95">
@@ -1467,10 +1467,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.9642394479738163</v>
+        <v>-0.9644456852519974</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.9699744990579967</v>
+        <v>-0.9654150579232753</v>
       </c>
     </row>
     <row r="96">
@@ -1478,10 +1478,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.9654291696045247</v>
+        <v>-0.964771344367048</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.9710450678299467</v>
+        <v>-0.9654150579232753</v>
       </c>
     </row>
     <row r="97">
@@ -1489,10 +1489,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.965971320896313</v>
+        <v>-0.9651648620181763</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.9710990086787032</v>
+        <v>-0.9660075121243831</v>
       </c>
     </row>
     <row r="98">
@@ -1500,10 +1500,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.9663284025134328</v>
+        <v>-0.9651648620181763</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.971287526742723</v>
+        <v>-0.9660075121243831</v>
       </c>
     </row>
     <row r="99">
@@ -1511,10 +1511,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.9664829987736721</v>
+        <v>-0.9651663768165909</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.9715214056376691</v>
+        <v>-0.9661840471408867</v>
       </c>
     </row>
     <row r="100">
@@ -1522,10 +1522,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.967285731243544</v>
+        <v>-0.9651663768165909</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.9715214056376691</v>
+        <v>-0.9661840471408867</v>
       </c>
     </row>
     <row r="101">
@@ -1533,10 +1533,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.9676964628946084</v>
+        <v>-0.9656910438842867</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.9715214056376691</v>
+        <v>-0.967108303135198</v>
       </c>
     </row>
     <row r="102">
@@ -1544,10 +1544,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.9677082783419628</v>
+        <v>-0.9657915166660103</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.9715214056376691</v>
+        <v>-0.96816569617113</v>
       </c>
     </row>
     <row r="103">
@@ -1555,10 +1555,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.9691916238492121</v>
+        <v>-0.9664700966603256</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.9715215675379829</v>
+        <v>-0.9684389315662775</v>
       </c>
     </row>
     <row r="104">
@@ -1566,10 +1566,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.9701952272319712</v>
+        <v>-0.9667047186854596</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.9719352961707899</v>
+        <v>-0.9688701651732362</v>
       </c>
     </row>
     <row r="105">
@@ -1577,10 +1577,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.9705164171988325</v>
+        <v>-0.9667048734451693</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.9727210212670359</v>
+        <v>-0.9688701651732362</v>
       </c>
     </row>
     <row r="106">
@@ -1588,10 +1588,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.9708219613573733</v>
+        <v>-0.9672500996089296</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.9730602768678649</v>
+        <v>-0.9689973735367466</v>
       </c>
     </row>
     <row r="107">
@@ -1599,10 +1599,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.9710089191125618</v>
+        <v>-0.9674793478078736</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.9730903137299114</v>
+        <v>-0.9689973735367466</v>
       </c>
     </row>
     <row r="108">
@@ -1610,10 +1610,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.9710089191125618</v>
+        <v>-0.9674793478078736</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.973667458267453</v>
+        <v>-0.9690895246518615</v>
       </c>
     </row>
     <row r="109">
@@ -1621,10 +1621,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.9711370821592605</v>
+        <v>-0.9674797732216307</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.973667458267453</v>
+        <v>-0.9693136789894319</v>
       </c>
     </row>
     <row r="110">
@@ -1632,10 +1632,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.9725133676689761</v>
+        <v>-0.9675490012098544</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.9741620039081118</v>
+        <v>-0.969772687470932</v>
       </c>
     </row>
     <row r="111">
@@ -1643,10 +1643,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.9728205578540607</v>
+        <v>-0.9680574376693514</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.9746222826820555</v>
+        <v>-0.9698479921434037</v>
       </c>
     </row>
     <row r="112">
@@ -1654,10 +1654,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.973120494281735</v>
+        <v>-0.9691048846926678</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.9746708691101048</v>
+        <v>-0.9701025371492459</v>
       </c>
     </row>
     <row r="113">
@@ -1665,10 +1665,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.9731215010344778</v>
+        <v>-0.9696053922235032</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.9746708802896467</v>
+        <v>-0.9702068827481832</v>
       </c>
     </row>
     <row r="114">
@@ -1676,10 +1676,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.9733596302418422</v>
+        <v>-0.9701417050096564</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.9751930247179109</v>
+        <v>-0.9702068827481832</v>
       </c>
     </row>
     <row r="115">
@@ -1687,10 +1687,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.9734501369006157</v>
+        <v>-0.9709857600246317</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.9756252304914342</v>
+        <v>-0.9708963902820293</v>
       </c>
     </row>
     <row r="116">
@@ -1698,10 +1698,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.9739272680704183</v>
+        <v>-0.9721365158173854</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.9765456838953903</v>
+        <v>-0.9709451775322846</v>
       </c>
     </row>
     <row r="117">
@@ -1709,10 +1709,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.9739272680704183</v>
+        <v>-0.9729063428686893</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.9766573637599208</v>
+        <v>-0.97184217592859</v>
       </c>
     </row>
     <row r="118">
@@ -1720,10 +1720,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.9744582770754588</v>
+        <v>-0.9729453901381069</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.9770602467864445</v>
+        <v>-0.972444955918514</v>
       </c>
     </row>
     <row r="119">
@@ -1731,10 +1731,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.9749227444610196</v>
+        <v>-0.9729453901381069</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.9778791401345882</v>
+        <v>-0.972541313272652</v>
       </c>
     </row>
     <row r="120">
@@ -1742,10 +1742,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.9751982479323221</v>
+        <v>-0.9729453901381069</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.9790132352838696</v>
+        <v>-0.9728636545311541</v>
       </c>
     </row>
     <row r="121">
@@ -1753,10 +1753,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.9751982479323221</v>
+        <v>-0.9733938404822667</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.9793999797394422</v>
+        <v>-0.9728636545311541</v>
       </c>
     </row>
     <row r="122">
@@ -1764,10 +1764,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.9754210562383249</v>
+        <v>-0.973722865170902</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.9794664667164659</v>
+        <v>-0.9734843405812778</v>
       </c>
     </row>
     <row r="123">
@@ -1775,10 +1775,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.9754210562383249</v>
+        <v>-0.974426139961817</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.9799657988640758</v>
+        <v>-0.9742467644845373</v>
       </c>
     </row>
     <row r="124">
@@ -1786,10 +1786,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.975820529282396</v>
+        <v>-0.9748465220384057</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.979967222522093</v>
+        <v>-0.9748591628173388</v>
       </c>
     </row>
     <row r="125">
@@ -1797,10 +1797,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.9758363599473792</v>
+        <v>-0.9748465220384057</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.979994935850302</v>
+        <v>-0.9753634959321953</v>
       </c>
     </row>
     <row r="126">
@@ -1808,10 +1808,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.9765981049284024</v>
+        <v>-0.9748465267991229</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.9803550178520619</v>
+        <v>-0.9758328579853439</v>
       </c>
     </row>
     <row r="127">
@@ -1819,10 +1819,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.9769252869023225</v>
+        <v>-0.9757473612146892</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.9803550178520619</v>
+        <v>-0.9763157133711441</v>
       </c>
     </row>
     <row r="128">
@@ -1830,10 +1830,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.9770378187695998</v>
+        <v>-0.9762358772109759</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.9804228323447661</v>
+        <v>-0.9763272465567461</v>
       </c>
     </row>
     <row r="129">
@@ -1841,10 +1841,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.9777317901080083</v>
+        <v>-0.9763302292308658</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.9807752969010255</v>
+        <v>-0.9763272465567461</v>
       </c>
     </row>
     <row r="130">
@@ -1852,10 +1852,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.9778676602447767</v>
+        <v>-0.9763302292308658</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.9809125895300241</v>
+        <v>-0.9765999423778332</v>
       </c>
     </row>
     <row r="131">
@@ -1863,10 +1863,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.9781393342794972</v>
+        <v>-0.9764477162893531</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.9810460102965231</v>
+        <v>-0.9770765796167694</v>
       </c>
     </row>
     <row r="132">
@@ -1874,10 +1874,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.9786859174578324</v>
+        <v>-0.9773744928564454</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.9816337156572733</v>
+        <v>-0.977191413247136</v>
       </c>
     </row>
     <row r="133">
@@ -1885,10 +1885,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.9786859174578324</v>
+        <v>-0.9773993955561702</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.9816671151733622</v>
+        <v>-0.9778739323360088</v>
       </c>
     </row>
     <row r="134">
@@ -1896,10 +1896,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.9786859174578324</v>
+        <v>-0.977624338170788</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.9816760836000898</v>
+        <v>-0.9781211825887133</v>
       </c>
     </row>
     <row r="135">
@@ -1907,10 +1907,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.9786859174578324</v>
+        <v>-0.9776797809378632</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.9816760836000898</v>
+        <v>-0.9785327889971489</v>
       </c>
     </row>
     <row r="136">
@@ -1918,10 +1918,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.9794472436829108</v>
+        <v>-0.9778347295996679</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.9817919675183829</v>
+        <v>-0.978837328380554</v>
       </c>
     </row>
     <row r="137">
@@ -1929,10 +1929,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.9796130969046272</v>
+        <v>-0.9778347295996679</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.9819553063164089</v>
+        <v>-0.9791525713969316</v>
       </c>
     </row>
     <row r="138">
@@ -1940,10 +1940,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.9798341270609595</v>
+        <v>-0.9779750775221896</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.9819553063164089</v>
+        <v>-0.9796305739814994</v>
       </c>
     </row>
     <row r="139">
@@ -1951,10 +1951,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.9802093412080944</v>
+        <v>-0.9780331002855713</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.9825479562551562</v>
+        <v>-0.9796305739814994</v>
       </c>
     </row>
     <row r="140">
@@ -1962,10 +1962,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.9802093412080944</v>
+        <v>-0.9786731125742999</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.9826617252587275</v>
+        <v>-0.9798895471368977</v>
       </c>
     </row>
     <row r="141">
@@ -1973,10 +1973,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.9802093412080944</v>
+        <v>-0.9786731125742999</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.9827624023650385</v>
+        <v>-0.9798895471368977</v>
       </c>
     </row>
     <row r="142">
@@ -1984,10 +1984,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.9809833020835274</v>
+        <v>-0.9789607208368367</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.9827624023650385</v>
+        <v>-0.9798895471368977</v>
       </c>
     </row>
     <row r="143">
@@ -1995,10 +1995,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.9811993035886946</v>
+        <v>-0.9794391212232212</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.9828404298065125</v>
+        <v>-0.9798895471368977</v>
       </c>
     </row>
     <row r="144">
@@ -2006,10 +2006,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.9815929248967393</v>
+        <v>-0.9800428375228029</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.9831329828155259</v>
+        <v>-0.9798895471368977</v>
       </c>
     </row>
     <row r="145">
@@ -2017,10 +2017,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.9820389039584282</v>
+        <v>-0.9810089786134956</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.9831329828155259</v>
+        <v>-0.979903317868563</v>
       </c>
     </row>
     <row r="146">
@@ -2028,10 +2028,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.9829826046406197</v>
+        <v>-0.9810095809260956</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.9832630469391463</v>
+        <v>-0.9806732816141412</v>
       </c>
     </row>
     <row r="147">
@@ -2039,10 +2039,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.9832211217443083</v>
+        <v>-0.9815032763965639</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.9835134985491409</v>
+        <v>-0.9807351509488332</v>
       </c>
     </row>
     <row r="148">
@@ -2050,10 +2050,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.9833899764024193</v>
+        <v>-0.981556756292308</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.9835134985491409</v>
+        <v>-0.9815258513170113</v>
       </c>
     </row>
     <row r="149">
@@ -2061,10 +2061,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.9833899764024193</v>
+        <v>-0.9819081483200403</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.9836181765297538</v>
+        <v>-0.9823825794040038</v>
       </c>
     </row>
     <row r="150">
@@ -2072,10 +2072,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.9840589248862917</v>
+        <v>-0.982044632254824</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.9836181765297538</v>
+        <v>-0.9825207869626227</v>
       </c>
     </row>
     <row r="151">
@@ -2083,10 +2083,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.9845303399271433</v>
+        <v>-0.9821029070610993</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.9842640121102407</v>
+        <v>-0.982619391490244</v>
       </c>
     </row>
     <row r="152">
@@ -2094,10 +2094,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.9847083688774956</v>
+        <v>-0.982547361808332</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.984910117414671</v>
+        <v>-0.9830341294307913</v>
       </c>
     </row>
     <row r="153">
@@ -2105,10 +2105,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.9852464228055584</v>
+        <v>-0.9829740613711574</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.9850761669344889</v>
+        <v>-0.9831306538492242</v>
       </c>
     </row>
     <row r="154">
@@ -2116,10 +2116,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.9853889039365066</v>
+        <v>-0.9834368347061715</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.9852254010279076</v>
+        <v>-0.9834389066959029</v>
       </c>
     </row>
     <row r="155">
@@ -2127,10 +2127,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.985735225275146</v>
+        <v>-0.9844827891229747</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.9852334420776444</v>
+        <v>-0.9836370749319695</v>
       </c>
     </row>
     <row r="156">
@@ -2138,10 +2138,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.9859217021441546</v>
+        <v>-0.9845127020852389</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.9854222351581181</v>
+        <v>-0.9842389049222439</v>
       </c>
     </row>
     <row r="157">
@@ -2149,10 +2149,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.9859814839246814</v>
+        <v>-0.9845384316310063</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.985585506916017</v>
+        <v>-0.9843528360858289</v>
       </c>
     </row>
     <row r="158">
@@ -2160,10 +2160,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.9860854551005815</v>
+        <v>-0.984792209671104</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.9856501787816913</v>
+        <v>-0.9844814523221472</v>
       </c>
     </row>
     <row r="159">
@@ -2171,10 +2171,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.9862748823727477</v>
+        <v>-0.9848508116656611</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.9860535348326624</v>
+        <v>-0.9849426992794037</v>
       </c>
     </row>
     <row r="160">
@@ -2182,10 +2182,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.9862789540752661</v>
+        <v>-0.9850723155064365</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.9860535348326624</v>
+        <v>-0.985207314363781</v>
       </c>
     </row>
     <row r="161">
@@ -2193,10 +2193,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.9865084606215566</v>
+        <v>-0.9856702285010706</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.9860535348326624</v>
+        <v>-0.9854486160731747</v>
       </c>
     </row>
     <row r="162">
@@ -2204,10 +2204,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.9869845514881723</v>
+        <v>-0.9858143112695482</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.9863706220801268</v>
+        <v>-0.9855626583418544</v>
       </c>
     </row>
     <row r="163">
@@ -2215,10 +2215,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.98802278137045</v>
+        <v>-0.9858742987741853</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.9865750958949334</v>
+        <v>-0.9856890629035584</v>
       </c>
     </row>
     <row r="164">
@@ -2226,10 +2226,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.9880559314332242</v>
+        <v>-0.9858742987741853</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.9872695648713632</v>
+        <v>-0.9858878190091098</v>
       </c>
     </row>
     <row r="165">
@@ -2237,10 +2237,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.9885255890801976</v>
+        <v>-0.9859794398160262</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.9872695648713632</v>
+        <v>-0.9860564767842299</v>
       </c>
     </row>
     <row r="166">
@@ -2248,10 +2248,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.9886459665077861</v>
+        <v>-0.9863091255761148</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.9872875023160331</v>
+        <v>-0.9860564767842299</v>
       </c>
     </row>
     <row r="167">
@@ -2259,10 +2259,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.9886560563137238</v>
+        <v>-0.9868001297424394</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.9880636914849309</v>
+        <v>-0.9862254254575694</v>
       </c>
     </row>
     <row r="168">
@@ -2270,10 +2270,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.9887228711860645</v>
+        <v>-0.9869221448579809</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.9880636914849309</v>
+        <v>-0.9871009081119064</v>
       </c>
     </row>
     <row r="169">
@@ -2281,10 +2281,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.9887228711860645</v>
+        <v>-0.9869221448579809</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.9881418710151572</v>
+        <v>-0.9872995433791294</v>
       </c>
     </row>
     <row r="170">
@@ -2292,10 +2292,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.9891134927902847</v>
+        <v>-0.9869946005485378</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.9881856996949788</v>
+        <v>-0.9873007569412795</v>
       </c>
     </row>
     <row r="171">
@@ -2303,10 +2303,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.9892267554997685</v>
+        <v>-0.9869946005485378</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.9882611335184273</v>
+        <v>-0.9875631763600589</v>
       </c>
     </row>
     <row r="172">
@@ -2314,10 +2314,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.9892709305334674</v>
+        <v>-0.9869946458985102</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.9894423482953815</v>
+        <v>-0.9876495477176315</v>
       </c>
     </row>
     <row r="173">
@@ -2325,10 +2325,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.9892709305334674</v>
+        <v>-0.9876447546119873</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.9894423482953815</v>
+        <v>-0.9878686221680062</v>
       </c>
     </row>
     <row r="174">
@@ -2336,10 +2336,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.9892897933157866</v>
+        <v>-0.9878506369813556</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.9894854688927159</v>
+        <v>-0.9881540679868271</v>
       </c>
     </row>
     <row r="175">
@@ -2347,10 +2347,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.9894864329581496</v>
+        <v>-0.9878743590361442</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.9896828853664266</v>
+        <v>-0.9883795006883841</v>
       </c>
     </row>
     <row r="176">
@@ -2358,10 +2358,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.9894864329581496</v>
+        <v>-0.9878743590361442</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.9899725888005965</v>
+        <v>-0.9886250226075961</v>
       </c>
     </row>
     <row r="177">
@@ -2369,10 +2369,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.9895296468362424</v>
+        <v>-0.9878743590361442</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.9900025597243517</v>
+        <v>-0.9886511119992395</v>
       </c>
     </row>
     <row r="178">
@@ -2380,10 +2380,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.9895758724005213</v>
+        <v>-0.9881089119357657</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.9901158561871753</v>
+        <v>-0.988739899926224</v>
       </c>
     </row>
     <row r="179">
@@ -2391,10 +2391,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.9898392352190984</v>
+        <v>-0.9884822200048525</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.9901158561871753</v>
+        <v>-0.9887589898121117</v>
       </c>
     </row>
     <row r="180">
@@ -2402,10 +2402,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.9898392352190984</v>
+        <v>-0.9891628517077428</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.9901158561871753</v>
+        <v>-0.9890838846477706</v>
       </c>
     </row>
     <row r="181">
@@ -2413,10 +2413,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.9899528056574863</v>
+        <v>-0.9894333490358024</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.9901354061511154</v>
+        <v>-0.9893736718465856</v>
       </c>
     </row>
     <row r="182">
@@ -2424,10 +2424,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.990355623978559</v>
+        <v>-0.9894442773706856</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.9901354061511154</v>
+        <v>-0.9893984820639727</v>
       </c>
     </row>
     <row r="183">
@@ -2435,10 +2435,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.9904143011167251</v>
+        <v>-0.9894473166017118</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.9901983762320218</v>
+        <v>-0.9900110532026229</v>
       </c>
     </row>
     <row r="184">
@@ -2446,10 +2446,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.9906400962128997</v>
+        <v>-0.9894730984020425</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.990874220831911</v>
+        <v>-0.9900265324841451</v>
       </c>
     </row>
     <row r="185">
@@ -2457,10 +2457,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.990746426012683</v>
+        <v>-0.9896740600112025</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.9909273969073071</v>
+        <v>-0.990130499892883</v>
       </c>
     </row>
     <row r="186">
@@ -2468,10 +2468,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.9907718696279622</v>
+        <v>-0.9896740600112025</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.9912547605204446</v>
+        <v>-0.9905264253976438</v>
       </c>
     </row>
     <row r="187">
@@ -2479,10 +2479,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.9909949576291649</v>
+        <v>-0.9899101127284143</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.9913421007488584</v>
+        <v>-0.9906482815144685</v>
       </c>
     </row>
     <row r="188">
@@ -2490,10 +2490,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.9911041818214048</v>
+        <v>-0.9907737700913443</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.991756919797938</v>
+        <v>-0.9906482815144685</v>
       </c>
     </row>
     <row r="189">
@@ -2501,10 +2501,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.9911041818214048</v>
+        <v>-0.9907753870947887</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.9919149119842458</v>
+        <v>-0.9908842019869033</v>
       </c>
     </row>
     <row r="190">
@@ -2512,10 +2512,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.9911041818214048</v>
+        <v>-0.9907753870947887</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.9921751432495707</v>
+        <v>-0.9913337163536946</v>
       </c>
     </row>
     <row r="191">
@@ -2523,10 +2523,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.9911041818214048</v>
+        <v>-0.9909522855166528</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.9921751432495707</v>
+        <v>-0.9913509007185684</v>
       </c>
     </row>
     <row r="192">
@@ -2534,10 +2534,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.9911589639522614</v>
+        <v>-0.9911914972252321</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.9921751432495707</v>
+        <v>-0.9913509007185684</v>
       </c>
     </row>
     <row r="193">
@@ -2545,10 +2545,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.9912486092425852</v>
+        <v>-0.9912652977402605</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.9921751432495707</v>
+        <v>-0.9913509007185684</v>
       </c>
     </row>
     <row r="194">
@@ -2556,10 +2556,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.9913007878264584</v>
+        <v>-0.9913522976662982</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.9924000562787377</v>
+        <v>-0.9913567246679716</v>
       </c>
     </row>
     <row r="195">
@@ -2567,10 +2567,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.9913946454676215</v>
+        <v>-0.9917312308925371</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.9924000562787377</v>
+        <v>-0.9914267364085549</v>
       </c>
     </row>
     <row r="196">
@@ -2578,10 +2578,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.9916310700677241</v>
+        <v>-0.9920003934798275</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.9924000562787377</v>
+        <v>-0.9919425602548853</v>
       </c>
     </row>
     <row r="197">
@@ -2589,10 +2589,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.9916839336601789</v>
+        <v>-0.9920003934798275</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.9926400927607201</v>
+        <v>-0.9919425602548853</v>
       </c>
     </row>
     <row r="198">
@@ -2600,10 +2600,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.9916839336601789</v>
+        <v>-0.9922315054347838</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.9930255705393991</v>
+        <v>-0.9919425602548853</v>
       </c>
     </row>
     <row r="199">
@@ -2611,10 +2611,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.9919560088335685</v>
+        <v>-0.9922315054347838</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.9931805913875097</v>
+        <v>-0.992033340932847</v>
       </c>
     </row>
     <row r="200">
@@ -2622,10 +2622,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.9919560088335685</v>
+        <v>-0.9923460114081912</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.9931805913875097</v>
+        <v>-0.992658538598617</v>
       </c>
     </row>
     <row r="201">
@@ -2633,10 +2633,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.9919560088335685</v>
+        <v>-0.992355055673779</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.9933405578705985</v>
+        <v>-0.9926901660176642</v>
       </c>
     </row>
     <row r="202">
@@ -2644,10 +2644,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.9919560088335685</v>
+        <v>-0.9924338544397603</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.9933641762090077</v>
+        <v>-0.9929691155605207</v>
       </c>
     </row>
     <row r="203">
@@ -2655,10 +2655,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.9921289585871896</v>
+        <v>-0.9924338544397603</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.9935695252759322</v>
+        <v>-0.9930329067370317</v>
       </c>
     </row>
     <row r="204">
@@ -2666,10 +2666,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.9923842963362928</v>
+        <v>-0.9926525344298828</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.9938770570882874</v>
+        <v>-0.9931024357986286</v>
       </c>
     </row>
     <row r="205">
@@ -2677,10 +2677,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.9926141253340899</v>
+        <v>-0.9926820192053734</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.9940437381373036</v>
+        <v>-0.9931566391093224</v>
       </c>
     </row>
     <row r="206">
@@ -2688,10 +2688,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.9927245710464693</v>
+        <v>-0.9928074503880038</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.9945316661180996</v>
+        <v>-0.9931566391093224</v>
       </c>
     </row>
     <row r="207">
@@ -2699,10 +2699,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.9927877974139224</v>
+        <v>-0.9928190162007249</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.9945316661180996</v>
+        <v>-0.9931904892163871</v>
       </c>
     </row>
     <row r="208">
@@ -2710,10 +2710,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.9930017008782608</v>
+        <v>-0.9929896998528004</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.994545599857808</v>
+        <v>-0.9933562009663183</v>
       </c>
     </row>
     <row r="209">
@@ -2721,10 +2721,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.9930017008782608</v>
+        <v>-0.9931919958747115</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.9946216092779246</v>
+        <v>-0.9933960711087103</v>
       </c>
     </row>
     <row r="210">
@@ -2732,10 +2732,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.9931600104538724</v>
+        <v>-0.9932224943246786</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.9946228321478588</v>
+        <v>-0.9934825052558081</v>
       </c>
     </row>
     <row r="211">
@@ -2743,10 +2743,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.9931600104538724</v>
+        <v>-0.9933471509219802</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.9947285782073686</v>
+        <v>-0.9935818671545256</v>
       </c>
     </row>
     <row r="212">
@@ -2754,10 +2754,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.9932039279599921</v>
+        <v>-0.9934121438515647</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.9947849778467344</v>
+        <v>-0.993879070627626</v>
       </c>
     </row>
     <row r="213">
@@ -2765,10 +2765,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.9933447145975327</v>
+        <v>-0.9934121438515647</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.994860481386029</v>
+        <v>-0.994058114646775</v>
       </c>
     </row>
     <row r="214">
@@ -2776,10 +2776,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.9933447145975327</v>
+        <v>-0.9935872089505751</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.994860481386029</v>
+        <v>-0.994058114646775</v>
       </c>
     </row>
     <row r="215">
@@ -2787,10 +2787,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.9935370001248696</v>
+        <v>-0.9935890394458819</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.9948635703054375</v>
+        <v>-0.9940784595312866</v>
       </c>
     </row>
     <row r="216">
@@ -2798,10 +2798,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.9937070915647044</v>
+        <v>-0.9935976872210981</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.9949511862119316</v>
+        <v>-0.9941020602978068</v>
       </c>
     </row>
     <row r="217">
@@ -2809,10 +2809,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.9937166740763823</v>
+        <v>-0.9935976872210981</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.9951704640880835</v>
+        <v>-0.9941535728453041</v>
       </c>
     </row>
     <row r="218">
@@ -2820,10 +2820,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.9939455258696713</v>
+        <v>-0.9935976872210981</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.9951980928989967</v>
+        <v>-0.9943682569034471</v>
       </c>
     </row>
     <row r="219">
@@ -2831,10 +2831,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.9941021254492991</v>
+        <v>-0.9936113332996817</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.9953663809536363</v>
+        <v>-0.9944986096980155</v>
       </c>
     </row>
     <row r="220">
@@ -2842,10 +2842,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.9941226713918258</v>
+        <v>-0.9936212073349111</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.9953663809536363</v>
+        <v>-0.9945758191573048</v>
       </c>
     </row>
     <row r="221">
@@ -2853,10 +2853,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.9942056157785527</v>
+        <v>-0.9937403524793563</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.9954212444263925</v>
+        <v>-0.9945758191573048</v>
       </c>
     </row>
     <row r="222">
@@ -2864,10 +2864,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.9942684381048327</v>
+        <v>-0.993890167935055</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.9954212444263925</v>
+        <v>-0.9947666358718992</v>
       </c>
     </row>
     <row r="223">
@@ -2875,10 +2875,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.9944215041230295</v>
+        <v>-0.9940742678918185</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.9955142249914911</v>
+        <v>-0.9947666358718992</v>
       </c>
     </row>
     <row r="224">
@@ -2886,10 +2886,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.9946405207054048</v>
+        <v>-0.9941867131285045</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.9955142249914911</v>
+        <v>-0.9948075962547405</v>
       </c>
     </row>
     <row r="225">
@@ -2897,10 +2897,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.9946790411472088</v>
+        <v>-0.9942562124614127</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.9955495710500105</v>
+        <v>-0.9948363572996202</v>
       </c>
     </row>
     <row r="226">
@@ -2908,10 +2908,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.9947432406940204</v>
+        <v>-0.9943410864421248</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.9955705769870364</v>
+        <v>-0.994938684033231</v>
       </c>
     </row>
     <row r="227">
@@ -2919,10 +2919,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.9949456841263136</v>
+        <v>-0.9944095691294405</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.9956009763104859</v>
+        <v>-0.9949930588347887</v>
       </c>
     </row>
     <row r="228">
@@ -2930,10 +2930,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.9949456841263136</v>
+        <v>-0.9944095691294405</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.9956009763104859</v>
+        <v>-0.9950163159963512</v>
       </c>
     </row>
     <row r="229">
@@ -2941,10 +2941,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.9949937157241528</v>
+        <v>-0.9944389990248684</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.9956677778235686</v>
+        <v>-0.9950163159963512</v>
       </c>
     </row>
     <row r="230">
@@ -2952,10 +2952,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.9950953353560597</v>
+        <v>-0.9947571478126608</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.9957489710849774</v>
+        <v>-0.9951345879758782</v>
       </c>
     </row>
     <row r="231">
@@ -2963,10 +2963,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.9950953353560597</v>
+        <v>-0.9947853081259197</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.9959188705383049</v>
+        <v>-0.9952859461450455</v>
       </c>
     </row>
     <row r="232">
@@ -2974,10 +2974,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.9950953353560597</v>
+        <v>-0.9949856627759107</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.9960243349256365</v>
+        <v>-0.9952859461450455</v>
       </c>
     </row>
     <row r="233">
@@ -2985,10 +2985,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.9952099690793204</v>
+        <v>-0.9954684524627223</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.9962159183930853</v>
+        <v>-0.9954162255513208</v>
       </c>
     </row>
     <row r="234">
@@ -2996,10 +2996,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.9952327828389934</v>
+        <v>-0.9958724048431463</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.9962934756716589</v>
+        <v>-0.9955852760848305</v>
       </c>
     </row>
     <row r="235">
@@ -3007,10 +3007,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.9953046591834149</v>
+        <v>-0.9960167247038852</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.9963563750239756</v>
+        <v>-0.9955852760848305</v>
       </c>
     </row>
     <row r="236">
@@ -3018,10 +3018,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.995596698559727</v>
+        <v>-0.9960954521975678</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.9964499593309669</v>
+        <v>-0.9955852760848305</v>
       </c>
     </row>
     <row r="237">
@@ -3029,10 +3029,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.99562416588906</v>
+        <v>-0.9961462376508368</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.9965070271122859</v>
+        <v>-0.995640397628473</v>
       </c>
     </row>
     <row r="238">
@@ -3040,10 +3040,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.99562416588906</v>
+        <v>-0.9962015550154425</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.9965070271122859</v>
+        <v>-0.9957649268795111</v>
       </c>
     </row>
     <row r="239">
@@ -3051,10 +3051,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.9956732405417915</v>
+        <v>-0.9962334388380231</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.9965074675287455</v>
+        <v>-0.9958925749746596</v>
       </c>
     </row>
     <row r="240">
@@ -3062,10 +3062,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.9958158372925554</v>
+        <v>-0.9962334388380231</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.9965391455162892</v>
+        <v>-0.9961032613804801</v>
       </c>
     </row>
     <row r="241">
@@ -3073,10 +3073,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.9958652020739683</v>
+        <v>-0.9963076836485243</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.996600218749813</v>
+        <v>-0.99610467082914</v>
       </c>
     </row>
     <row r="242">
@@ -3084,10 +3084,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.9960290235721727</v>
+        <v>-0.9963095907347709</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.996600218749813</v>
+        <v>-0.99610467082914</v>
       </c>
     </row>
     <row r="243">
@@ -3095,10 +3095,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.9960591268579225</v>
+        <v>-0.9963095907347709</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.9966213898916074</v>
+        <v>-0.99610467082914</v>
       </c>
     </row>
     <row r="244">
@@ -3106,10 +3106,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.9960798138802247</v>
+        <v>-0.9963136943642037</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.99667493994524</v>
+        <v>-0.9961248505163033</v>
       </c>
     </row>
     <row r="245">
@@ -3117,10 +3117,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.9960859802749213</v>
+        <v>-0.9963369024904192</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.99667493994524</v>
+        <v>-0.9962560073422579</v>
       </c>
     </row>
     <row r="246">
@@ -3128,10 +3128,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.9961134506155557</v>
+        <v>-0.9963430883342926</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.9967386321491368</v>
+        <v>-0.9964057824807881</v>
       </c>
     </row>
     <row r="247">
@@ -3139,10 +3139,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.9963123696711206</v>
+        <v>-0.9963430883342926</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.9967708899153382</v>
+        <v>-0.9964195539164811</v>
       </c>
     </row>
     <row r="248">
@@ -3150,10 +3150,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.9963154598088596</v>
+        <v>-0.9964457124201312</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.9968867400133675</v>
+        <v>-0.9964975174696746</v>
       </c>
     </row>
     <row r="249">
@@ -3161,10 +3161,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.99634755404085</v>
+        <v>-0.9964752894115441</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.9969139922998272</v>
+        <v>-0.9965418678627702</v>
       </c>
     </row>
     <row r="250">
@@ -3172,10 +3172,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.9964229177263616</v>
+        <v>-0.9964786540160369</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.9969192710015059</v>
+        <v>-0.9965931405596856</v>
       </c>
     </row>
     <row r="251">
@@ -3183,10 +3183,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.9964849789303595</v>
+        <v>-0.9966577182858701</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.9969546571035266</v>
+        <v>-0.9966793462034595</v>
       </c>
     </row>
     <row r="252">
@@ -3194,10 +3194,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.996585184792105</v>
+        <v>-0.9967615678061835</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.9970282279578244</v>
+        <v>-0.9966958098064224</v>
       </c>
     </row>
     <row r="253">
@@ -3205,10 +3205,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.996585184792105</v>
+        <v>-0.9968215154014595</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.9970532405243401</v>
+        <v>-0.9966958098064224</v>
       </c>
     </row>
     <row r="254">
@@ -3216,10 +3216,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.9966302342733271</v>
+        <v>-0.9969624316329964</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.9971582308926211</v>
+        <v>-0.9967473377048406</v>
       </c>
     </row>
     <row r="255">
@@ -3227,10 +3227,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.9966302342733271</v>
+        <v>-0.9971888893187891</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.9973099528109725</v>
+        <v>-0.9968049592641561</v>
       </c>
     </row>
     <row r="256">
@@ -3238,10 +3238,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.996705674475319</v>
+        <v>-0.9972668759140252</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.9973584683893714</v>
+        <v>-0.99690102035034</v>
       </c>
     </row>
     <row r="257">
@@ -3249,10 +3249,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.9968188808805302</v>
+        <v>-0.997314101917166</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.9975431987116445</v>
+        <v>-0.9970291889640189</v>
       </c>
     </row>
     <row r="258">
@@ -3260,10 +3260,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.9968661697800504</v>
+        <v>-0.997314101917166</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.9975679063632684</v>
+        <v>-0.9970291889640189</v>
       </c>
     </row>
     <row r="259">
@@ -3271,10 +3271,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.9969476055612155</v>
+        <v>-0.9973206709373064</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.9975679063632684</v>
+        <v>-0.9970291889640189</v>
       </c>
     </row>
     <row r="260">
@@ -3282,10 +3282,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.9969866114967978</v>
+        <v>-0.9973994583863434</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.9976504286733323</v>
+        <v>-0.997049137694283</v>
       </c>
     </row>
     <row r="261">
@@ -3293,10 +3293,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.9969866114967978</v>
+        <v>-0.9975412312929661</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.9976504286733323</v>
+        <v>-0.997077919938816</v>
       </c>
     </row>
     <row r="262">
@@ -3304,10 +3304,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.9970964424461328</v>
+        <v>-0.9976171898674321</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.9976894948238605</v>
+        <v>-0.9971172926534057</v>
       </c>
     </row>
     <row r="263">
@@ -3315,10 +3315,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.9971608029701744</v>
+        <v>-0.9976171898674321</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.9977560691325807</v>
+        <v>-0.9971686729114559</v>
       </c>
     </row>
     <row r="264">
@@ -3326,10 +3326,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.9972281672175827</v>
+        <v>-0.9976953870757389</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.9977560691325807</v>
+        <v>-0.9972520066217321</v>
       </c>
     </row>
     <row r="265">
@@ -3337,10 +3337,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.9972401014173558</v>
+        <v>-0.9977829281738955</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.9977722847389069</v>
+        <v>-0.9974436014285244</v>
       </c>
     </row>
     <row r="266">
@@ -3348,10 +3348,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.9972428997602488</v>
+        <v>-0.9978081804573106</v>
       </c>
       <c r="C266" t="n">
-        <v>-0.9978058500680272</v>
+        <v>-0.9974486240010673</v>
       </c>
     </row>
     <row r="267">
@@ -3359,10 +3359,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.9972844165480461</v>
+        <v>-0.997808403426374</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.9978058500680272</v>
+        <v>-0.9975947551952167</v>
       </c>
     </row>
     <row r="268">
@@ -3370,10 +3370,10 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.9974425714069703</v>
+        <v>-0.997808403426374</v>
       </c>
       <c r="C268" t="n">
-        <v>-0.9978076254893397</v>
+        <v>-0.9976710911982937</v>
       </c>
     </row>
     <row r="269">
@@ -3381,10 +3381,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.9975002667748786</v>
+        <v>-0.9978334555983892</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.9979549774896781</v>
+        <v>-0.9976710911982937</v>
       </c>
     </row>
     <row r="270">
@@ -3392,10 +3392,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.9975264072033362</v>
+        <v>-0.9978409474427782</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.9980501737244881</v>
+        <v>-0.9976710911982937</v>
       </c>
     </row>
     <row r="271">
@@ -3403,10 +3403,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.9975532347909533</v>
+        <v>-0.9978507625932933</v>
       </c>
       <c r="C271" t="n">
-        <v>-0.9980749680924942</v>
+        <v>-0.997811936598176</v>
       </c>
     </row>
     <row r="272">
@@ -3414,10 +3414,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.9975890907272595</v>
+        <v>-0.9978507625932933</v>
       </c>
       <c r="C272" t="n">
-        <v>-0.9981638671771097</v>
+        <v>-0.997879910619859</v>
       </c>
     </row>
     <row r="273">
@@ -3425,10 +3425,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.9976142293946044</v>
+        <v>-0.9979546450053658</v>
       </c>
       <c r="C273" t="n">
-        <v>-0.9981663330286666</v>
+        <v>-0.9979126075791634</v>
       </c>
     </row>
     <row r="274">
@@ -3436,10 +3436,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.9976858706703697</v>
+        <v>-0.9979821675346691</v>
       </c>
       <c r="C274" t="n">
-        <v>-0.9981663330286666</v>
+        <v>-0.9979497037920727</v>
       </c>
     </row>
     <row r="275">
@@ -3447,10 +3447,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.9976946522003616</v>
+        <v>-0.9979982803599244</v>
       </c>
       <c r="C275" t="n">
-        <v>-0.9981663330286666</v>
+        <v>-0.9979497037920727</v>
       </c>
     </row>
     <row r="276">
@@ -3458,10 +3458,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.9977182888300854</v>
+        <v>-0.9980154501396687</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.9981663330286666</v>
+        <v>-0.9979500615657586</v>
       </c>
     </row>
     <row r="277">
@@ -3469,10 +3469,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.9977628237625911</v>
+        <v>-0.9980154501396687</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.9982327890200473</v>
+        <v>-0.998016674571839</v>
       </c>
     </row>
     <row r="278">
@@ -3480,10 +3480,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.9977733050875643</v>
+        <v>-0.998066093133304</v>
       </c>
       <c r="C278" t="n">
-        <v>-0.9982418122532546</v>
+        <v>-0.9980472671040035</v>
       </c>
     </row>
     <row r="279">
@@ -3491,10 +3491,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.9978110164387545</v>
+        <v>-0.9980815741626112</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.998254271474782</v>
+        <v>-0.9980656519979553</v>
       </c>
     </row>
     <row r="280">
@@ -3502,10 +3502,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.9978161754363845</v>
+        <v>-0.9980815741626112</v>
       </c>
       <c r="C280" t="n">
-        <v>-0.9982693602832985</v>
+        <v>-0.9980756730960261</v>
       </c>
     </row>
     <row r="281">
@@ -3513,10 +3513,10 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.9978239709900211</v>
+        <v>-0.9981340126683249</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.9982732613734767</v>
+        <v>-0.9980803825458965</v>
       </c>
     </row>
     <row r="282">
@@ -3524,10 +3524,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.9978310054288613</v>
+        <v>-0.9981495999102727</v>
       </c>
       <c r="C282" t="n">
-        <v>-0.9982810664595171</v>
+        <v>-0.9980803825458965</v>
       </c>
     </row>
     <row r="283">
@@ -3535,10 +3535,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.9978796518413663</v>
+        <v>-0.9981642340504863</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.9983332281587052</v>
+        <v>-0.9981708790426417</v>
       </c>
     </row>
     <row r="284">
@@ -3546,10 +3546,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.997898601330231</v>
+        <v>-0.9982169289058214</v>
       </c>
       <c r="C284" t="n">
-        <v>-0.9983401666524786</v>
+        <v>-0.9983259883925062</v>
       </c>
     </row>
     <row r="285">
@@ -3557,10 +3557,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.9978986963526915</v>
+        <v>-0.9982296344179877</v>
       </c>
       <c r="C285" t="n">
-        <v>-0.998355014901267</v>
+        <v>-0.9983762731468991</v>
       </c>
     </row>
     <row r="286">
@@ -3568,10 +3568,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.9979678142022435</v>
+        <v>-0.9983445879822048</v>
       </c>
       <c r="C286" t="n">
-        <v>-0.9984043763519627</v>
+        <v>-0.9983898237210126</v>
       </c>
     </row>
     <row r="287">
@@ -3579,10 +3579,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.9979788192398806</v>
+        <v>-0.9984117837612364</v>
       </c>
       <c r="C287" t="n">
-        <v>-0.9984253990393099</v>
+        <v>-0.9983898237210126</v>
       </c>
     </row>
     <row r="288">
@@ -3590,10 +3590,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.998023713866328</v>
+        <v>-0.9984117837612364</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.9984301902282673</v>
+        <v>-0.9983906138376284</v>
       </c>
     </row>
     <row r="289">
@@ -3601,10 +3601,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.9980256496295405</v>
+        <v>-0.9984292037125609</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.9984301902282673</v>
+        <v>-0.9984069375169408</v>
       </c>
     </row>
     <row r="290">
@@ -3612,10 +3612,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.9980548378992044</v>
+        <v>-0.99844797840614</v>
       </c>
       <c r="C290" t="n">
-        <v>-0.9984301902282673</v>
+        <v>-0.9984069375169408</v>
       </c>
     </row>
     <row r="291">
@@ -3623,10 +3623,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.9980759042682332</v>
+        <v>-0.9984678950306535</v>
       </c>
       <c r="C291" t="n">
-        <v>-0.9985022009416196</v>
+        <v>-0.998456401221905</v>
       </c>
     </row>
     <row r="292">
@@ -3634,10 +3634,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.9980814090649583</v>
+        <v>-0.9985205861175765</v>
       </c>
       <c r="C292" t="n">
-        <v>-0.9985022009416196</v>
+        <v>-0.998456401221905</v>
       </c>
     </row>
     <row r="293">
@@ -3645,10 +3645,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.9980869746368959</v>
+        <v>-0.998553468767584</v>
       </c>
       <c r="C293" t="n">
-        <v>-0.998536283469792</v>
+        <v>-0.9984601880579479</v>
       </c>
     </row>
     <row r="294">
@@ -3656,10 +3656,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.9980988796389451</v>
+        <v>-0.9986112865854884</v>
       </c>
       <c r="C294" t="n">
-        <v>-0.9985621706578972</v>
+        <v>-0.9984601880579479</v>
       </c>
     </row>
     <row r="295">
@@ -3667,10 +3667,10 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.9982518678822244</v>
+        <v>-0.9986221228547778</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.9985732397346385</v>
+        <v>-0.9984601880579479</v>
       </c>
     </row>
     <row r="296">
@@ -3678,10 +3678,10 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.9982549693792814</v>
+        <v>-0.9986492427149133</v>
       </c>
       <c r="C296" t="n">
-        <v>-0.9986178933411404</v>
+        <v>-0.9984609619113753</v>
       </c>
     </row>
     <row r="297">
@@ -3689,10 +3689,10 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.9983019237289235</v>
+        <v>-0.9986638262576335</v>
       </c>
       <c r="C297" t="n">
-        <v>-0.9986178933411404</v>
+        <v>-0.9984609619113753</v>
       </c>
     </row>
     <row r="298">
@@ -3700,10 +3700,10 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.9983205018864745</v>
+        <v>-0.9986895989053408</v>
       </c>
       <c r="C298" t="n">
-        <v>-0.9986304673433825</v>
+        <v>-0.9984663164902003</v>
       </c>
     </row>
     <row r="299">
@@ -3711,10 +3711,10 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.9983606035129539</v>
+        <v>-0.9986922354016882</v>
       </c>
       <c r="C299" t="n">
-        <v>-0.9986377263236683</v>
+        <v>-0.9984668082943082</v>
       </c>
     </row>
     <row r="300">
@@ -3722,10 +3722,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.9983614398623036</v>
+        <v>-0.9987113363601593</v>
       </c>
       <c r="C300" t="n">
-        <v>-0.9986632829427506</v>
+        <v>-0.9984737771756932</v>
       </c>
     </row>
     <row r="301">
@@ -3733,10 +3733,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.9983614398623036</v>
+        <v>-0.9987113363601593</v>
       </c>
       <c r="C301" t="n">
-        <v>-0.9986834728302231</v>
+        <v>-0.9984842747643025</v>
       </c>
     </row>
   </sheetData>
@@ -3989,10 +3989,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C21" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="22">
@@ -4000,10 +4000,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C22" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="23">
@@ -4011,10 +4011,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C23" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="24">
@@ -4022,10 +4022,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C24" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="25">
@@ -4033,10 +4033,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C25" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="26">
@@ -4044,10 +4044,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C26" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="27">
@@ -4055,10 +4055,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C27" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="28">
@@ -4066,10 +4066,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C28" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="29">
@@ -4077,10 +4077,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C29" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="30">
@@ -4088,10 +4088,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C30" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="31">
@@ -4099,10 +4099,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C31" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="32">
@@ -4110,10 +4110,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C32" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C32" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="33">
@@ -4121,10 +4121,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C33" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="34">
@@ -4132,10 +4132,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C34" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="35">
@@ -4143,10 +4143,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C35" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="36">
@@ -4154,10 +4154,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C36" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="37">
@@ -4165,10 +4165,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C37" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C37" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="38">
@@ -4176,10 +4176,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C38" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C38" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="39">
@@ -4187,10 +4187,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C39" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="40">
@@ -4198,10 +4198,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>3.010507120901723</v>
+      </c>
+      <c r="C40" t="n">
         <v>3.005203820042824</v>
-      </c>
-      <c r="C40" t="n">
-        <v>3.015810421760622</v>
       </c>
     </row>
     <row r="41">
@@ -4209,10 +4209,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C41" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="42">
@@ -4220,10 +4220,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C42" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="43">
@@ -4231,10 +4231,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C43" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="44">
@@ -4242,10 +4242,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C44" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="45">
@@ -4253,10 +4253,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C45" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C45" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="46">
@@ -4264,10 +4264,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C46" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C46" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="47">
@@ -4275,10 +4275,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C47" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="48">
@@ -4286,10 +4286,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C48" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="49">
@@ -4297,10 +4297,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C49" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="50">
@@ -4308,10 +4308,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C50" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="51">
@@ -4319,10 +4319,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C51" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="52">
@@ -4330,10 +4330,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C52" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="53">
@@ -4341,10 +4341,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C53" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="54">
@@ -4352,10 +4352,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C54" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C54" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="55">
@@ -4363,10 +4363,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C55" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="56">
@@ -4374,10 +4374,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C56" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="57">
@@ -4385,10 +4385,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C57" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C57" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="58">
@@ -4396,10 +4396,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C58" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C58" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="59">
@@ -4407,10 +4407,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C59" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="60">
@@ -4418,10 +4418,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>2.558931052766463</v>
+      </c>
+      <c r="C60" t="n">
         <v>2.554423247036398</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2.563438858496527</v>
       </c>
     </row>
     <row r="61">
@@ -4429,10 +4429,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C61" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="62">
@@ -4440,10 +4440,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C62" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="63">
@@ -4451,10 +4451,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C63" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="64">
@@ -4462,10 +4462,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C64" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="65">
@@ -4473,10 +4473,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C65" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="66">
@@ -4484,10 +4484,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C66" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="67">
@@ -4495,10 +4495,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C67" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C67" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="68">
@@ -4506,10 +4506,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C68" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="69">
@@ -4517,10 +4517,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C69" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="70">
@@ -4528,10 +4528,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C70" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="71">
@@ -4539,10 +4539,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C71" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="72">
@@ -4550,10 +4550,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C72" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="73">
@@ -4561,10 +4561,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C73" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C73" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="74">
@@ -4572,10 +4572,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C74" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C74" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="75">
@@ -4583,10 +4583,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C75" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C75" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="76">
@@ -4594,10 +4594,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C76" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C76" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="77">
@@ -4605,10 +4605,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C77" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="78">
@@ -4616,10 +4616,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C78" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C78" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="79">
@@ -4627,10 +4627,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C79" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="80">
@@ -4638,10 +4638,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>2.175091394851502</v>
+      </c>
+      <c r="C80" t="n">
         <v>2.171259759980947</v>
-      </c>
-      <c r="C80" t="n">
-        <v>2.178923029722057</v>
       </c>
     </row>
     <row r="81">
@@ -4649,10 +4649,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C81" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="82">
@@ -4660,10 +4660,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C82" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="83">
@@ -4671,10 +4671,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C83" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="84">
@@ -4682,10 +4682,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C84" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="85">
@@ -4693,10 +4693,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C85" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="86">
@@ -4704,10 +4704,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C86" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="87">
@@ -4715,10 +4715,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C87" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="88">
@@ -4726,10 +4726,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C88" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="89">
@@ -4737,10 +4737,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C89" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="90">
@@ -4748,10 +4748,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C90" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="91">
@@ -4759,10 +4759,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C91" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="92">
@@ -4770,10 +4770,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C92" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="93">
@@ -4781,10 +4781,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C93" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="94">
@@ -4792,10 +4792,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C94" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="95">
@@ -4803,10 +4803,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C95" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="96">
@@ -4814,10 +4814,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C96" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="97">
@@ -4825,10 +4825,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C97" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="98">
@@ -4836,10 +4836,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C98" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="99">
@@ -4847,10 +4847,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C99" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="100">
@@ -4858,10 +4858,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>1.848827685623775</v>
+      </c>
+      <c r="C100" t="n">
         <v>1.845570795983803</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.852084575263746</v>
       </c>
     </row>
     <row r="101">
@@ -4869,10 +4869,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C101" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="102">
@@ -4880,10 +4880,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C102" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="103">
@@ -4891,10 +4891,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C103" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="104">
@@ -4902,10 +4902,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C104" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="105">
@@ -4913,10 +4913,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C105" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="106">
@@ -4924,10 +4924,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C106" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="107">
@@ -4935,10 +4935,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C107" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="108">
@@ -4946,10 +4946,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C108" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="109">
@@ -4957,10 +4957,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C109" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="110">
@@ -4968,10 +4968,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C110" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="111">
@@ -4979,10 +4979,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C111" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="112">
@@ -4990,10 +4990,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C112" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="113">
@@ -5001,10 +5001,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C113" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="114">
@@ -5012,10 +5012,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C114" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="115">
@@ -5023,10 +5023,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C115" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="116">
@@ -5034,10 +5034,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C116" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="117">
@@ -5045,10 +5045,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C117" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="118">
@@ -5056,10 +5056,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C118" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="119">
@@ -5067,10 +5067,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C119" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="120">
@@ -5078,10 +5078,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>1.571503532780209</v>
+      </c>
+      <c r="C120" t="n">
         <v>1.568735176586233</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1.574271888974184</v>
       </c>
     </row>
     <row r="121">
@@ -5089,10 +5089,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C121" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="122">
@@ -5100,10 +5100,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C122" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="123">
@@ -5111,10 +5111,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C123" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="124">
@@ -5122,10 +5122,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C124" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="125">
@@ -5133,10 +5133,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C125" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="126">
@@ -5144,10 +5144,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C126" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="127">
@@ -5155,10 +5155,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C127" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="128">
@@ -5166,10 +5166,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C128" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="129">
@@ -5177,10 +5177,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C129" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="130">
@@ -5188,10 +5188,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C130" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="131">
@@ -5199,10 +5199,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C131" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="132">
@@ -5210,10 +5210,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C132" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="133">
@@ -5221,10 +5221,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C133" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="134">
@@ -5232,10 +5232,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C134" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="135">
@@ -5243,10 +5243,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C135" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="136">
@@ -5254,10 +5254,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C136" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="137">
@@ -5265,10 +5265,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C137" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="138">
@@ -5276,10 +5276,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C138" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="139">
@@ -5287,10 +5287,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C139" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="140">
@@ -5298,10 +5298,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>1.335778002863174</v>
+      </c>
+      <c r="C140" t="n">
         <v>1.333424900098295</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1.338131105628053</v>
       </c>
     </row>
     <row r="141">
@@ -5309,10 +5309,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C141" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="142">
@@ -5320,10 +5320,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C142" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="143">
@@ -5331,10 +5331,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C143" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="144">
@@ -5342,10 +5342,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C144" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="145">
@@ -5353,10 +5353,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C145" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="146">
@@ -5364,10 +5364,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C146" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="147">
@@ -5375,10 +5375,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C147" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="148">
@@ -5386,10 +5386,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C148" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="149">
@@ -5397,10 +5397,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C149" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="150">
@@ -5408,10 +5408,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C150" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="151">
@@ -5419,10 +5419,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C151" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="152">
@@ -5430,10 +5430,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C152" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="153">
@@ -5441,10 +5441,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C153" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="154">
@@ -5452,10 +5452,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C154" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="155">
@@ -5463,10 +5463,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C155" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="156">
@@ -5474,10 +5474,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C156" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="157">
@@ -5485,10 +5485,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C157" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="158">
@@ -5496,10 +5496,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C158" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="159">
@@ -5507,10 +5507,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C159" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="160">
@@ -5518,10 +5518,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>1.135411302433702</v>
+      </c>
+      <c r="C160" t="n">
         <v>1.133411165083554</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1.137411439783849</v>
       </c>
     </row>
     <row r="161">
@@ -5529,10 +5529,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C161" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="162">
@@ -5540,10 +5540,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C162" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="163">
@@ -5551,10 +5551,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C163" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="164">
@@ -5562,10 +5562,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C164" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="165">
@@ -5573,10 +5573,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C165" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="166">
@@ -5584,10 +5584,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C166" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="167">
@@ -5595,10 +5595,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C167" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="168">
@@ -5606,10 +5606,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C168" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="169">
@@ -5617,10 +5617,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C169" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="170">
@@ -5628,10 +5628,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C170" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="171">
@@ -5639,10 +5639,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C171" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="172">
@@ -5650,10 +5650,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C172" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="173">
@@ -5661,10 +5661,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C173" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="174">
@@ -5672,10 +5672,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C174" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="175">
@@ -5683,10 +5683,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C175" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="176">
@@ -5694,10 +5694,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C176" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="177">
@@ -5705,10 +5705,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C177" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="178">
@@ -5716,10 +5716,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C178" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="179">
@@ -5727,10 +5727,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C179" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="180">
@@ -5738,10 +5738,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>0.9650996070686452</v>
+      </c>
+      <c r="C180" t="n">
         <v>0.9633994903210198</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.9667997238162706</v>
       </c>
     </row>
     <row r="181">
@@ -5749,10 +5749,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C181" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="182">
@@ -5760,10 +5760,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C182" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="183">
@@ -5771,10 +5771,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C183" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="184">
@@ -5782,10 +5782,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C184" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="185">
@@ -5793,10 +5793,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C185" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="186">
@@ -5804,10 +5804,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C186" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="187">
@@ -5815,10 +5815,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C187" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="188">
@@ -5826,10 +5826,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C188" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="189">
@@ -5837,10 +5837,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C189" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="190">
@@ -5848,10 +5848,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C190" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="191">
@@ -5859,10 +5859,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C191" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="192">
@@ -5870,10 +5870,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C192" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="193">
@@ -5881,10 +5881,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C193" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="194">
@@ -5892,10 +5892,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C194" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="195">
@@ -5903,10 +5903,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C195" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="196">
@@ -5914,10 +5914,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C196" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="197">
@@ -5925,10 +5925,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C197" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="198">
@@ -5936,10 +5936,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C198" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="199">
@@ -5947,10 +5947,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C199" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="200">
@@ -5958,10 +5958,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
+        <v>0.8203346660083484</v>
+      </c>
+      <c r="C200" t="n">
         <v>0.818889566772867</v>
-      </c>
-      <c r="C200" t="n">
-        <v>0.82177976524383</v>
       </c>
     </row>
     <row r="201">
@@ -5969,10 +5969,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C201" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="202">
@@ -5980,10 +5980,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C202" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C202" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="203">
@@ -5991,10 +5991,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C203" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C203" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="204">
@@ -6002,10 +6002,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C204" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C204" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="205">
@@ -6013,10 +6013,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C205" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C205" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="206">
@@ -6024,10 +6024,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C206" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C206" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="207">
@@ -6035,10 +6035,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C207" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C207" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="208">
@@ -6046,10 +6046,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C208" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C208" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="209">
@@ -6057,10 +6057,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C209" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C209" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="210">
@@ -6068,10 +6068,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C210" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C210" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="211">
@@ -6079,10 +6079,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C211" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="212">
@@ -6090,10 +6090,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C212" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C212" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="213">
@@ -6101,10 +6101,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C213" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C213" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="214">
@@ -6112,10 +6112,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C214" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C214" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="215">
@@ -6123,10 +6123,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C215" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C215" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="216">
@@ -6134,10 +6134,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C216" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C216" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="217">
@@ -6145,10 +6145,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C217" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C217" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="218">
@@ -6156,10 +6156,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C218" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C218" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="219">
@@ -6167,10 +6167,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C219" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C219" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="220">
@@ -6178,10 +6178,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>0.6972844661070938</v>
+      </c>
+      <c r="C220" t="n">
         <v>0.6960561317569345</v>
-      </c>
-      <c r="C220" t="n">
-        <v>0.6985128004572532</v>
       </c>
     </row>
     <row r="221">
@@ -6189,10 +6189,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C221" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C221" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="222">
@@ -6200,10 +6200,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C222" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C222" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="223">
@@ -6211,10 +6211,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C223" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C223" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="224">
@@ -6222,10 +6222,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C224" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C224" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="225">
@@ -6233,10 +6233,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C225" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C225" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="226">
@@ -6244,10 +6244,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C226" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C226" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="227">
@@ -6255,10 +6255,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C227" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C227" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="228">
@@ -6266,10 +6266,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C228" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C228" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="229">
@@ -6277,10 +6277,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C229" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C229" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="230">
@@ -6288,10 +6288,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C230" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C230" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="231">
@@ -6299,10 +6299,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C231" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C231" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="232">
@@ -6310,10 +6310,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C232" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C232" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="233">
@@ -6321,10 +6321,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C233" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C233" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="234">
@@ -6332,10 +6332,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C234" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C234" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="235">
@@ -6343,10 +6343,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C235" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C235" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="236">
@@ -6354,10 +6354,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C236" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C236" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="237">
@@ -6365,10 +6365,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C237" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C237" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="238">
@@ -6376,10 +6376,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C238" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C238" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="239">
@@ -6387,10 +6387,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C239" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C239" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="240">
@@ -6398,10 +6398,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>0.5926917961910312</v>
+      </c>
+      <c r="C240" t="n">
         <v>0.5916477119933957</v>
-      </c>
-      <c r="C240" t="n">
-        <v>0.5937358803886665</v>
       </c>
     </row>
     <row r="241">
@@ -6409,10 +6409,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C241" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C241" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="242">
@@ -6420,10 +6420,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C242" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C242" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="243">
@@ -6431,10 +6431,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C243" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C243" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="244">
@@ -6442,10 +6442,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C244" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="245">
@@ -6453,10 +6453,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C245" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C245" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="246">
@@ -6464,10 +6464,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C246" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C246" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="247">
@@ -6475,10 +6475,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C247" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C247" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="248">
@@ -6486,10 +6486,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C248" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C248" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="249">
@@ -6497,10 +6497,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C249" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C249" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="250">
@@ -6508,10 +6508,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C250" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C250" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="251">
@@ -6519,10 +6519,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C251" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C251" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="252">
@@ -6530,10 +6530,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C252" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C252" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="253">
@@ -6541,10 +6541,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C253" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C253" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="254">
@@ -6552,10 +6552,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C254" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C254" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="255">
@@ -6563,10 +6563,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C255" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C255" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="256">
@@ -6574,10 +6574,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C256" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C256" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="257">
@@ -6585,10 +6585,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C257" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C257" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="258">
@@ -6596,10 +6596,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C258" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C258" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="259">
@@ -6607,10 +6607,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C259" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C259" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="260">
@@ -6618,10 +6618,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
+        <v>0.5037880267623769</v>
+      </c>
+      <c r="C260" t="n">
         <v>0.5029005551943867</v>
-      </c>
-      <c r="C260" t="n">
-        <v>0.504675498330367</v>
       </c>
     </row>
     <row r="261">
@@ -6629,10 +6629,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C261" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C261" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="262">
@@ -6640,10 +6640,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C262" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C262" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="263">
@@ -6651,10 +6651,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C263" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C263" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="264">
@@ -6662,10 +6662,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C264" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C264" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="265">
@@ -6673,10 +6673,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C265" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C265" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="266">
@@ -6684,10 +6684,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C266" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C266" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="267">
@@ -6695,10 +6695,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C267" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C267" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="268">
@@ -6706,10 +6706,10 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C268" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C268" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="269">
@@ -6717,10 +6717,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C269" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C269" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="270">
@@ -6728,10 +6728,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C270" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C270" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="271">
@@ -6739,10 +6739,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C271" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C271" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="272">
@@ -6750,10 +6750,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C272" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C272" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="273">
@@ -6761,10 +6761,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C273" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C273" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="274">
@@ -6772,10 +6772,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C274" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C274" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="275">
@@ -6783,10 +6783,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C275" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C275" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="276">
@@ -6794,10 +6794,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C276" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C276" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="277">
@@ -6805,10 +6805,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C277" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C277" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="278">
@@ -6816,10 +6816,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C278" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C278" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="279">
@@ -6827,10 +6827,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C279" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C279" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="280">
@@ -6838,10 +6838,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
+        <v>0.4282198227480189</v>
+      </c>
+      <c r="C280" t="n">
         <v>0.4274654719152273</v>
-      </c>
-      <c r="C280" t="n">
-        <v>0.4289741735808105</v>
       </c>
     </row>
     <row r="281">
@@ -6849,10 +6849,10 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C281" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C281" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="282">
@@ -6860,10 +6860,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C282" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C282" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="283">
@@ -6871,10 +6871,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C283" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C283" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="284">
@@ -6882,10 +6882,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C284" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C284" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="285">
@@ -6893,10 +6893,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C285" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C285" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="286">
@@ -6904,10 +6904,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C286" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C286" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="287">
@@ -6915,10 +6915,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C287" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C287" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="288">
@@ -6926,10 +6926,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C288" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C288" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="289">
@@ -6937,10 +6937,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C289" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C289" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="290">
@@ -6948,10 +6948,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C290" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C290" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="291">
@@ -6959,10 +6959,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C291" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C291" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="292">
@@ -6970,10 +6970,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C292" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C292" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="293">
@@ -6981,10 +6981,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C293" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C293" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="294">
@@ -6992,10 +6992,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C294" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C294" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="295">
@@ -7003,10 +7003,10 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C295" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C295" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="296">
@@ -7014,10 +7014,10 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C296" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C296" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="297">
@@ -7025,10 +7025,10 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C297" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C297" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="298">
@@ -7036,10 +7036,10 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C298" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C298" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="299">
@@ -7047,10 +7047,10 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C299" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C299" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="300">
@@ -7058,10 +7058,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
+        <v>0.3639868493358164</v>
+      </c>
+      <c r="C300" t="n">
         <v>0.3633456511279436</v>
-      </c>
-      <c r="C300" t="n">
-        <v>0.3646280475436893</v>
       </c>
     </row>
     <row r="301">
@@ -7069,10 +7069,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
+        <v>0.309388821935445</v>
+      </c>
+      <c r="C301" t="n">
         <v>0.3088438034587531</v>
-      </c>
-      <c r="C301" t="n">
-        <v>0.3099338404121369</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments_1B/03_RecombinationOperators/Drop-Wave/curves.xlsx
+++ b/Experiments_1B/03_RecombinationOperators/Drop-Wave/curves.xlsx
@@ -444,10 +444,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.8630814164892285</v>
+        <v>-0.8512543333169243</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8620743377142805</v>
+        <v>-0.8503768225072761</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.8910112695756657</v>
+        <v>-0.8864554282988389</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8824987878522031</v>
+        <v>-0.8876707073894147</v>
       </c>
     </row>
     <row r="4">
@@ -466,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9009803330913287</v>
+        <v>-0.8984017914134224</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9067412109831454</v>
+        <v>-0.9144234609094133</v>
       </c>
     </row>
     <row r="5">
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.9093641509697767</v>
+        <v>-0.9122353713719598</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9178805660759792</v>
+        <v>-0.9186645946466434</v>
       </c>
     </row>
     <row r="6">
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.9188970353120735</v>
+        <v>-0.9205340375288958</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9224097610105786</v>
+        <v>-0.9245041761951214</v>
       </c>
     </row>
     <row r="7">
@@ -499,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9250284420029534</v>
+        <v>-0.9257183529689056</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9271249987075718</v>
+        <v>-0.9264542638962122</v>
       </c>
     </row>
     <row r="8">
@@ -510,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.9298303864150905</v>
+        <v>-0.9284777993270978</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9289011339082713</v>
+        <v>-0.930872580939605</v>
       </c>
     </row>
     <row r="9">
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.9319320824813346</v>
+        <v>-0.9316258003123662</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9322441308600357</v>
+        <v>-0.9327734457698472</v>
       </c>
     </row>
     <row r="10">
@@ -532,10 +532,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9325546054281985</v>
+        <v>-0.9335286104275901</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.9333408922063368</v>
+        <v>-0.9342836313626023</v>
       </c>
     </row>
     <row r="11">
@@ -543,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9337846614445475</v>
+        <v>-0.9354988357907517</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9344305755208832</v>
+        <v>-0.9353537983554575</v>
       </c>
     </row>
     <row r="12">
@@ -554,10 +554,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.9343937213509926</v>
+        <v>-0.9363818783651456</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.9350244525636607</v>
+        <v>-0.9369046213409625</v>
       </c>
     </row>
     <row r="13">
@@ -565,10 +565,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.9354928148841618</v>
+        <v>-0.9386208191266898</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9352435777260284</v>
+        <v>-0.9375892882134125</v>
       </c>
     </row>
     <row r="14">
@@ -576,10 +576,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.9363283874598544</v>
+        <v>-0.9388795696962512</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.9369563467531242</v>
+        <v>-0.9388883351810857</v>
       </c>
     </row>
     <row r="15">
@@ -587,10 +587,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9371159042615075</v>
+        <v>-0.940010558310544</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.9371911989857883</v>
+        <v>-0.9395970707651129</v>
       </c>
     </row>
     <row r="16">
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.9373311853470244</v>
+        <v>-0.9401133199696635</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.9372554313737338</v>
+        <v>-0.9398219642285214</v>
       </c>
     </row>
     <row r="17">
@@ -609,10 +609,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.9376346227417136</v>
+        <v>-0.9410415378285957</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.9382578918497285</v>
+        <v>-0.9406728266387324</v>
       </c>
     </row>
     <row r="18">
@@ -620,10 +620,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.9383210488182963</v>
+        <v>-0.9413057222555226</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.9390391463755187</v>
+        <v>-0.9415367213459466</v>
       </c>
     </row>
     <row r="19">
@@ -631,10 +631,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.9389940730543352</v>
+        <v>-0.9421288775355154</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.9391218564069024</v>
+        <v>-0.9428137808156543</v>
       </c>
     </row>
     <row r="20">
@@ -642,10 +642,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9390258078871608</v>
+        <v>-0.9421828389059381</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.9391994946381559</v>
+        <v>-0.9428958159180166</v>
       </c>
     </row>
     <row r="21">
@@ -653,10 +653,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.9394146867184133</v>
+        <v>-0.9423115599562358</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.9393316598448865</v>
+        <v>-0.9431054380148545</v>
       </c>
     </row>
     <row r="22">
@@ -664,10 +664,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.9406109460902137</v>
+        <v>-0.9428833228853962</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.9394782706963215</v>
+        <v>-0.9434127311638424</v>
       </c>
     </row>
     <row r="23">
@@ -675,10 +675,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.9413784948255162</v>
+        <v>-0.9432707266392122</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.9396548492535345</v>
+        <v>-0.9434296048499783</v>
       </c>
     </row>
     <row r="24">
@@ -686,10 +686,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.9419438335944287</v>
+        <v>-0.9434705451605623</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.9398237063889539</v>
+        <v>-0.9434750507408201</v>
       </c>
     </row>
     <row r="25">
@@ -697,10 +697,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.9424621789362058</v>
+        <v>-0.9434973872268241</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.9398546692389474</v>
+        <v>-0.9435371316858123</v>
       </c>
     </row>
     <row r="26">
@@ -708,10 +708,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.9425452877418303</v>
+        <v>-0.9438900214497119</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.940211226868837</v>
+        <v>-0.9435472118810938</v>
       </c>
     </row>
     <row r="27">
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.9437271223312707</v>
+        <v>-0.9439006433750265</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.9405010573079974</v>
+        <v>-0.9442797453118003</v>
       </c>
     </row>
     <row r="28">
@@ -730,10 +730,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.9437426992136468</v>
+        <v>-0.9439713878362405</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.9405943342085886</v>
+        <v>-0.9447216981364869</v>
       </c>
     </row>
     <row r="29">
@@ -741,10 +741,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.9438221628938472</v>
+        <v>-0.9440187342520394</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.9415865202524807</v>
+        <v>-0.9447735431207356</v>
       </c>
     </row>
     <row r="30">
@@ -752,10 +752,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.9439899253294521</v>
+        <v>-0.9448674107149176</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.9423585782162276</v>
+        <v>-0.9452003047848351</v>
       </c>
     </row>
     <row r="31">
@@ -763,10 +763,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.943989972818148</v>
+        <v>-0.9456274616543784</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.9430006792203272</v>
+        <v>-0.9452207819126098</v>
       </c>
     </row>
     <row r="32">
@@ -774,10 +774,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.9444279345270865</v>
+        <v>-0.9456793684636637</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.9435864595916671</v>
+        <v>-0.9453339615410477</v>
       </c>
     </row>
     <row r="33">
@@ -785,10 +785,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.9446337573810087</v>
+        <v>-0.945689055399434</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.9441495306951402</v>
+        <v>-0.9457421545457446</v>
       </c>
     </row>
     <row r="34">
@@ -796,10 +796,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.9449282584983254</v>
+        <v>-0.9457173525821263</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.9442881041799516</v>
+        <v>-0.9457774461341384</v>
       </c>
     </row>
     <row r="35">
@@ -807,10 +807,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.945373088869106</v>
+        <v>-0.9461849100703675</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.9448963494705025</v>
+        <v>-0.9461401226751023</v>
       </c>
     </row>
     <row r="36">
@@ -818,10 +818,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.9458007122433206</v>
+        <v>-0.9466802971664374</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.944898836993612</v>
+        <v>-0.9464496159761621</v>
       </c>
     </row>
     <row r="37">
@@ -829,10 +829,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.9462325275294705</v>
+        <v>-0.9466807039508605</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.945470889665298</v>
+        <v>-0.946464246396438</v>
       </c>
     </row>
     <row r="38">
@@ -840,10 +840,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.9462472233415834</v>
+        <v>-0.9479658639580957</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.945470889665298</v>
+        <v>-0.946464246396438</v>
       </c>
     </row>
     <row r="39">
@@ -851,10 +851,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.9469080384360601</v>
+        <v>-0.9479658639580957</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.9462045321327563</v>
+        <v>-0.9469054329231238</v>
       </c>
     </row>
     <row r="40">
@@ -862,10 +862,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.9475512132611571</v>
+        <v>-0.948531031930565</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.9464402228554918</v>
+        <v>-0.9472990986357296</v>
       </c>
     </row>
     <row r="41">
@@ -873,10 +873,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.9475512132611571</v>
+        <v>-0.9493272884088876</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.9468446385242505</v>
+        <v>-0.9480424329768534</v>
       </c>
     </row>
     <row r="42">
@@ -884,10 +884,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.9479289104781192</v>
+        <v>-0.9493323724261008</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.947031221952314</v>
+        <v>-0.9489282106627698</v>
       </c>
     </row>
     <row r="43">
@@ -895,10 +895,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.9484612766044868</v>
+        <v>-0.949334309715721</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.9482481261012771</v>
+        <v>-0.9494954764145958</v>
       </c>
     </row>
     <row r="44">
@@ -906,10 +906,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.9485356284036131</v>
+        <v>-0.9495417206783995</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.9482529855070347</v>
+        <v>-0.9498527946485951</v>
       </c>
     </row>
     <row r="45">
@@ -917,10 +917,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.948575064717469</v>
+        <v>-0.950111925337086</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.9482529855070347</v>
+        <v>-0.9500444485355821</v>
       </c>
     </row>
     <row r="46">
@@ -928,10 +928,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.9497954688001572</v>
+        <v>-0.9504208159413935</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.948484627361087</v>
+        <v>-0.9500529101454667</v>
       </c>
     </row>
     <row r="47">
@@ -939,10 +939,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9497990421592094</v>
+        <v>-0.950422091391339</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9501253664960544</v>
+        <v>-0.9503967484625384</v>
       </c>
     </row>
     <row r="48">
@@ -950,10 +950,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.9502396819514223</v>
+        <v>-0.9505225392184985</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.9501276787099264</v>
+        <v>-0.9503967484625384</v>
       </c>
     </row>
     <row r="49">
@@ -961,10 +961,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.9505370510024278</v>
+        <v>-0.9505251339236162</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.9504802626356695</v>
+        <v>-0.9507203917733063</v>
       </c>
     </row>
     <row r="50">
@@ -972,10 +972,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.9505370510024278</v>
+        <v>-0.951077272180467</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.9504911353763807</v>
+        <v>-0.9515991811317795</v>
       </c>
     </row>
     <row r="51">
@@ -983,10 +983,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.9505385641335244</v>
+        <v>-0.9510777481753436</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.950520983736822</v>
+        <v>-0.9521074473211947</v>
       </c>
     </row>
     <row r="52">
@@ -994,10 +994,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.951202977440092</v>
+        <v>-0.9518085213759552</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.9510580778542972</v>
+        <v>-0.9521074473211947</v>
       </c>
     </row>
     <row r="53">
@@ -1005,10 +1005,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.951202977440092</v>
+        <v>-0.9518165439245692</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.9512186770449484</v>
+        <v>-0.9523699344608083</v>
       </c>
     </row>
     <row r="54">
@@ -1016,10 +1016,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.9515036618289825</v>
+        <v>-0.9521974031513685</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.9518784491673622</v>
+        <v>-0.9532900907943401</v>
       </c>
     </row>
     <row r="55">
@@ -1027,10 +1027,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.9515068243760245</v>
+        <v>-0.9529151012260515</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.9522287107461131</v>
+        <v>-0.9542375382474927</v>
       </c>
     </row>
     <row r="56">
@@ -1038,10 +1038,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.951808389815468</v>
+        <v>-0.9542658446736014</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.9522288896166141</v>
+        <v>-0.9542399264322744</v>
       </c>
     </row>
     <row r="57">
@@ -1049,10 +1049,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9520630719523507</v>
+        <v>-0.9547710915346979</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.9525702389912115</v>
+        <v>-0.9542453467083558</v>
       </c>
     </row>
     <row r="58">
@@ -1060,10 +1060,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.9524181192704729</v>
+        <v>-0.9551607039697977</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.9531118563121143</v>
+        <v>-0.9544409562005572</v>
       </c>
     </row>
     <row r="59">
@@ -1071,10 +1071,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.952726927514728</v>
+        <v>-0.9551635332737527</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.9531119483479007</v>
+        <v>-0.9545655007070127</v>
       </c>
     </row>
     <row r="60">
@@ -1082,10 +1082,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.9528509890732608</v>
+        <v>-0.9557489205720202</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.9531119483479007</v>
+        <v>-0.9547637800003634</v>
       </c>
     </row>
     <row r="61">
@@ -1093,10 +1093,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.9533439317560973</v>
+        <v>-0.9566439547099812</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.9531119483479007</v>
+        <v>-0.9547637800003634</v>
       </c>
     </row>
     <row r="62">
@@ -1104,10 +1104,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.9533496414473178</v>
+        <v>-0.9568978118853475</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.95333034467047</v>
+        <v>-0.9547692358538792</v>
       </c>
     </row>
     <row r="63">
@@ -1115,10 +1115,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.9534118423728505</v>
+        <v>-0.9568978118853475</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.9533447669737227</v>
+        <v>-0.9549480314484491</v>
       </c>
     </row>
     <row r="64">
@@ -1126,10 +1126,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9535500250722841</v>
+        <v>-0.9573098444030159</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.9533449040284476</v>
+        <v>-0.9555659567994383</v>
       </c>
     </row>
     <row r="65">
@@ -1137,10 +1137,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.9539143318304979</v>
+        <v>-0.9584282947676028</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.9546020221459108</v>
+        <v>-0.9564898902794441</v>
       </c>
     </row>
     <row r="66">
@@ -1148,10 +1148,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.9539150823860771</v>
+        <v>-0.9598996362466253</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.9558706265380019</v>
+        <v>-0.9564986582258039</v>
       </c>
     </row>
     <row r="67">
@@ -1159,10 +1159,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.9544283779875</v>
+        <v>-0.9599000447021873</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.9563256952757869</v>
+        <v>-0.9569533455569886</v>
       </c>
     </row>
     <row r="68">
@@ -1170,10 +1170,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.954856712317966</v>
+        <v>-0.9604180529510532</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.9563257367042847</v>
+        <v>-0.9574795965577499</v>
       </c>
     </row>
     <row r="69">
@@ -1181,10 +1181,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.9550936035795581</v>
+        <v>-0.9604189058637607</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.9565202686808402</v>
+        <v>-0.9576459696978386</v>
       </c>
     </row>
     <row r="70">
@@ -1192,10 +1192,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.9554217843395366</v>
+        <v>-0.9607454909145858</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.9573566441488485</v>
+        <v>-0.9576459914691565</v>
       </c>
     </row>
     <row r="71">
@@ -1203,10 +1203,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.9554830836982779</v>
+        <v>-0.9614153614665396</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.9573566441488485</v>
+        <v>-0.9577635380422385</v>
       </c>
     </row>
     <row r="72">
@@ -1214,10 +1214,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.9554830836982779</v>
+        <v>-0.9621015896535094</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.9573566441488485</v>
+        <v>-0.957763603135361</v>
       </c>
     </row>
     <row r="73">
@@ -1225,10 +1225,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.9554830836982779</v>
+        <v>-0.9624094560740087</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.958036137034429</v>
+        <v>-0.9583958990920298</v>
       </c>
     </row>
     <row r="74">
@@ -1236,10 +1236,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.9560849703792441</v>
+        <v>-0.9624094560740087</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.9587318833925351</v>
+        <v>-0.9583958990920298</v>
       </c>
     </row>
     <row r="75">
@@ -1247,10 +1247,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.9571143942791729</v>
+        <v>-0.9624116191703664</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.9587319029998962</v>
+        <v>-0.9584029941584922</v>
       </c>
     </row>
     <row r="76">
@@ -1258,10 +1258,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.9574379827965624</v>
+        <v>-0.9624117295924982</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.9587885036346545</v>
+        <v>-0.9584386933755402</v>
       </c>
     </row>
     <row r="77">
@@ -1269,10 +1269,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.9577379496897087</v>
+        <v>-0.9624117295924982</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.9587891759053038</v>
+        <v>-0.9587358006559336</v>
       </c>
     </row>
     <row r="78">
@@ -1280,10 +1280,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.9583215806089016</v>
+        <v>-0.9624117295924982</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.9589749515362604</v>
+        <v>-0.9595762145108374</v>
       </c>
     </row>
     <row r="79">
@@ -1291,10 +1291,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.9583542983728576</v>
+        <v>-0.9624125112856667</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.9589749515362604</v>
+        <v>-0.9597431474550916</v>
       </c>
     </row>
     <row r="80">
@@ -1302,10 +1302,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.9593469616448193</v>
+        <v>-0.9627236150291989</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.9589760653338627</v>
+        <v>-0.9597431474550916</v>
       </c>
     </row>
     <row r="81">
@@ -1313,10 +1313,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.9597838741481018</v>
+        <v>-0.9627236150291989</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.9594057778938954</v>
+        <v>-0.9598631676504624</v>
       </c>
     </row>
     <row r="82">
@@ -1324,10 +1324,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.9597838741481018</v>
+        <v>-0.9631534129294502</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.9599557630156277</v>
+        <v>-0.9601482341943844</v>
       </c>
     </row>
     <row r="83">
@@ -1335,10 +1335,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.960212329854892</v>
+        <v>-0.9644966916205377</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.9603902130659928</v>
+        <v>-0.9602666194672205</v>
       </c>
     </row>
     <row r="84">
@@ -1346,10 +1346,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.9603327662265866</v>
+        <v>-0.9644966916205377</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.9614708649724616</v>
+        <v>-0.9611200301593122</v>
       </c>
     </row>
     <row r="85">
@@ -1357,10 +1357,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.9603627902872622</v>
+        <v>-0.9649447629116628</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.9614708649724616</v>
+        <v>-0.9618240763888012</v>
       </c>
     </row>
     <row r="86">
@@ -1368,10 +1368,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.9603627902872622</v>
+        <v>-0.9655587235197498</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.9618653936335935</v>
+        <v>-0.962072840823553</v>
       </c>
     </row>
     <row r="87">
@@ -1379,10 +1379,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.9619713198872202</v>
+        <v>-0.9655982745968609</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.9622337011174504</v>
+        <v>-0.9620818709731388</v>
       </c>
     </row>
     <row r="88">
@@ -1390,10 +1390,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.9625020829662811</v>
+        <v>-0.966747282381607</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.9622337011174504</v>
+        <v>-0.9621930026942279</v>
       </c>
     </row>
     <row r="89">
@@ -1401,10 +1401,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.9631497778989234</v>
+        <v>-0.9670631450705315</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.9636572747324175</v>
+        <v>-0.9625884124131724</v>
       </c>
     </row>
     <row r="90">
@@ -1412,10 +1412,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.9632807353726434</v>
+        <v>-0.9670631450705315</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.9640280159749608</v>
+        <v>-0.9629375821226231</v>
       </c>
     </row>
     <row r="91">
@@ -1423,10 +1423,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.9632807353726434</v>
+        <v>-0.9670631450705315</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.9646755124520801</v>
+        <v>-0.9629912166930928</v>
       </c>
     </row>
     <row r="92">
@@ -1434,10 +1434,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.9640971905927594</v>
+        <v>-0.9678352768515706</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.9646794555779497</v>
+        <v>-0.9634816199216856</v>
       </c>
     </row>
     <row r="93">
@@ -1445,10 +1445,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.9640971905927594</v>
+        <v>-0.9678354192190511</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.9649856898241391</v>
+        <v>-0.9638527623988561</v>
       </c>
     </row>
     <row r="94">
@@ -1456,10 +1456,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.9640972456292919</v>
+        <v>-0.9678354192190511</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.9649860337512527</v>
+        <v>-0.9653935703615865</v>
       </c>
     </row>
     <row r="95">
@@ -1467,10 +1467,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.9644456852519974</v>
+        <v>-0.9690749832277474</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.9654150579232753</v>
+        <v>-0.9669751272130698</v>
       </c>
     </row>
     <row r="96">
@@ -1478,10 +1478,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.964771344367048</v>
+        <v>-0.9692974586752904</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.9654150579232753</v>
+        <v>-0.9675635066428334</v>
       </c>
     </row>
     <row r="97">
@@ -1489,10 +1489,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.9651648620181763</v>
+        <v>-0.970071198536681</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.9660075121243831</v>
+        <v>-0.9675635066428334</v>
       </c>
     </row>
     <row r="98">
@@ -1500,10 +1500,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.9651648620181763</v>
+        <v>-0.9700805215292657</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.9660075121243831</v>
+        <v>-0.9683395790927889</v>
       </c>
     </row>
     <row r="99">
@@ -1511,10 +1511,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.9651663768165909</v>
+        <v>-0.9704015162809755</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.9661840471408867</v>
+        <v>-0.9691466202472883</v>
       </c>
     </row>
     <row r="100">
@@ -1522,10 +1522,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.9651663768165909</v>
+        <v>-0.9704015162809755</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.9661840471408867</v>
+        <v>-0.969477247703582</v>
       </c>
     </row>
     <row r="101">
@@ -1533,10 +1533,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.9656910438842867</v>
+        <v>-0.9707645767009337</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.967108303135198</v>
+        <v>-0.9698347887192973</v>
       </c>
     </row>
     <row r="102">
@@ -1544,10 +1544,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.9657915166660103</v>
+        <v>-0.9709029403968269</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.96816569617113</v>
+        <v>-0.9702027226286458</v>
       </c>
     </row>
     <row r="103">
@@ -1555,10 +1555,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.9664700966603256</v>
+        <v>-0.9710835846366288</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.9684389315662775</v>
+        <v>-0.9703709650593992</v>
       </c>
     </row>
     <row r="104">
@@ -1566,10 +1566,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.9667047186854596</v>
+        <v>-0.9710835846366288</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.9688701651732362</v>
+        <v>-0.9710169669977491</v>
       </c>
     </row>
     <row r="105">
@@ -1577,10 +1577,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.9667048734451693</v>
+        <v>-0.9712450602200258</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.9688701651732362</v>
+        <v>-0.971540677606875</v>
       </c>
     </row>
     <row r="106">
@@ -1588,10 +1588,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.9672500996089296</v>
+        <v>-0.9712450602200258</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.9689973735367466</v>
+        <v>-0.9718379611657026</v>
       </c>
     </row>
     <row r="107">
@@ -1599,10 +1599,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.9674793478078736</v>
+        <v>-0.9714154308912148</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.9689973735367466</v>
+        <v>-0.9721092062658766</v>
       </c>
     </row>
     <row r="108">
@@ -1610,10 +1610,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.9674793478078736</v>
+        <v>-0.9720228971226217</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.9690895246518615</v>
+        <v>-0.9721092062658766</v>
       </c>
     </row>
     <row r="109">
@@ -1621,10 +1621,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.9674797732216307</v>
+        <v>-0.9723571933095064</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.9693136789894319</v>
+        <v>-0.9726836541661821</v>
       </c>
     </row>
     <row r="110">
@@ -1632,10 +1632,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.9675490012098544</v>
+        <v>-0.9724974137345285</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.969772687470932</v>
+        <v>-0.9730175597308417</v>
       </c>
     </row>
     <row r="111">
@@ -1643,10 +1643,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.9680574376693514</v>
+        <v>-0.972969468075812</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.9698479921434037</v>
+        <v>-0.9732180652789976</v>
       </c>
     </row>
     <row r="112">
@@ -1654,10 +1654,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.9691048846926678</v>
+        <v>-0.9731379541228402</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.9701025371492459</v>
+        <v>-0.9737832437280258</v>
       </c>
     </row>
     <row r="113">
@@ -1665,10 +1665,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.9696053922235032</v>
+        <v>-0.9731379571476581</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.9702068827481832</v>
+        <v>-0.9738001783870022</v>
       </c>
     </row>
     <row r="114">
@@ -1676,10 +1676,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.9701417050096564</v>
+        <v>-0.9737443926683338</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.9702068827481832</v>
+        <v>-0.9742778191675608</v>
       </c>
     </row>
     <row r="115">
@@ -1687,10 +1687,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.9709857600246317</v>
+        <v>-0.9737443926683338</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.9708963902820293</v>
+        <v>-0.9742778191675608</v>
       </c>
     </row>
     <row r="116">
@@ -1698,10 +1698,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.9721365158173854</v>
+        <v>-0.9737443965559913</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.9709451775322846</v>
+        <v>-0.9742778191675608</v>
       </c>
     </row>
     <row r="117">
@@ -1709,10 +1709,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.9729063428686893</v>
+        <v>-0.9740539599393945</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.97184217592859</v>
+        <v>-0.9743361688822297</v>
       </c>
     </row>
     <row r="118">
@@ -1720,10 +1720,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.9729453901381069</v>
+        <v>-0.9740539599393945</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.972444955918514</v>
+        <v>-0.9743860342367054</v>
       </c>
     </row>
     <row r="119">
@@ -1731,10 +1731,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.9729453901381069</v>
+        <v>-0.9743373362462145</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.972541313272652</v>
+        <v>-0.9747361235522096</v>
       </c>
     </row>
     <row r="120">
@@ -1742,10 +1742,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.9729453901381069</v>
+        <v>-0.9746496906203004</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.9728636545311541</v>
+        <v>-0.9747361235522096</v>
       </c>
     </row>
     <row r="121">
@@ -1753,10 +1753,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.9733938404822667</v>
+        <v>-0.9752523391362112</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.9728636545311541</v>
+        <v>-0.9748122762382228</v>
       </c>
     </row>
     <row r="122">
@@ -1764,10 +1764,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.973722865170902</v>
+        <v>-0.9759282858370041</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.9734843405812778</v>
+        <v>-0.9758872731917052</v>
       </c>
     </row>
     <row r="123">
@@ -1775,10 +1775,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.974426139961817</v>
+        <v>-0.976165963956294</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.9742467644845373</v>
+        <v>-0.975948935884102</v>
       </c>
     </row>
     <row r="124">
@@ -1786,10 +1786,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.9748465220384057</v>
+        <v>-0.9762086329780579</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.9748591628173388</v>
+        <v>-0.9767415769404498</v>
       </c>
     </row>
     <row r="125">
@@ -1797,10 +1797,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.9748465220384057</v>
+        <v>-0.9766059415097486</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.9753634959321953</v>
+        <v>-0.9770772909209515</v>
       </c>
     </row>
     <row r="126">
@@ -1808,10 +1808,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.9748465267991229</v>
+        <v>-0.9771745561461962</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.9758328579853439</v>
+        <v>-0.9778604388654728</v>
       </c>
     </row>
     <row r="127">
@@ -1819,10 +1819,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.9757473612146892</v>
+        <v>-0.9773002440813577</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.9763157133711441</v>
+        <v>-0.9780479987867813</v>
       </c>
     </row>
     <row r="128">
@@ -1830,10 +1830,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.9762358772109759</v>
+        <v>-0.9773780597241221</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.9763272465567461</v>
+        <v>-0.978069891557493</v>
       </c>
     </row>
     <row r="129">
@@ -1841,10 +1841,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.9763302292308658</v>
+        <v>-0.9773945929356135</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.9763272465567461</v>
+        <v>-0.9781905648000673</v>
       </c>
     </row>
     <row r="130">
@@ -1852,10 +1852,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.9763302292308658</v>
+        <v>-0.9773945929356135</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.9765999423778332</v>
+        <v>-0.9783432795857526</v>
       </c>
     </row>
     <row r="131">
@@ -1863,10 +1863,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.9764477162893531</v>
+        <v>-0.9786046392507098</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.9770765796167694</v>
+        <v>-0.9787828269936492</v>
       </c>
     </row>
     <row r="132">
@@ -1874,10 +1874,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.9773744928564454</v>
+        <v>-0.979042665562269</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.977191413247136</v>
+        <v>-0.9789294738292995</v>
       </c>
     </row>
     <row r="133">
@@ -1885,10 +1885,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.9773993955561702</v>
+        <v>-0.9794698823913285</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.9778739323360088</v>
+        <v>-0.9792482914277023</v>
       </c>
     </row>
     <row r="134">
@@ -1896,10 +1896,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.977624338170788</v>
+        <v>-0.9798319881198739</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.9781211825887133</v>
+        <v>-0.9797085532782348</v>
       </c>
     </row>
     <row r="135">
@@ -1907,10 +1907,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.9776797809378632</v>
+        <v>-0.9798319881198739</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.9785327889971489</v>
+        <v>-0.9799762989759612</v>
       </c>
     </row>
     <row r="136">
@@ -1918,10 +1918,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.9778347295996679</v>
+        <v>-0.9808142023710622</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.978837328380554</v>
+        <v>-0.9799762989759612</v>
       </c>
     </row>
     <row r="137">
@@ -1929,10 +1929,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.9778347295996679</v>
+        <v>-0.9811517460743235</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.9791525713969316</v>
+        <v>-0.9800391603868577</v>
       </c>
     </row>
     <row r="138">
@@ -1940,10 +1940,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.9779750775221896</v>
+        <v>-0.9814698071708463</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.9796305739814994</v>
+        <v>-0.9801460823701015</v>
       </c>
     </row>
     <row r="139">
@@ -1951,10 +1951,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.9780331002855713</v>
+        <v>-0.9819325162867344</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.9796305739814994</v>
+        <v>-0.9805695823356744</v>
       </c>
     </row>
     <row r="140">
@@ -1962,10 +1962,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.9786731125742999</v>
+        <v>-0.982236217524013</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.9798895471368977</v>
+        <v>-0.9807939445263891</v>
       </c>
     </row>
     <row r="141">
@@ -1973,10 +1973,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.9786731125742999</v>
+        <v>-0.9824008229712078</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.9798895471368977</v>
+        <v>-0.9820241552568906</v>
       </c>
     </row>
     <row r="142">
@@ -1984,10 +1984,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.9789607208368367</v>
+        <v>-0.9830096585959726</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.9798895471368977</v>
+        <v>-0.9829898709469621</v>
       </c>
     </row>
     <row r="143">
@@ -1995,10 +1995,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.9794391212232212</v>
+        <v>-0.9830096585959726</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.9798895471368977</v>
+        <v>-0.9831532748043554</v>
       </c>
     </row>
     <row r="144">
@@ -2006,10 +2006,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.9800428375228029</v>
+        <v>-0.9832207311053535</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.9798895471368977</v>
+        <v>-0.9837023912342155</v>
       </c>
     </row>
     <row r="145">
@@ -2017,10 +2017,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.9810089786134956</v>
+        <v>-0.9836343530131413</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.979903317868563</v>
+        <v>-0.9837460517895821</v>
       </c>
     </row>
     <row r="146">
@@ -2028,10 +2028,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.9810095809260956</v>
+        <v>-0.9836422361124753</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.9806732816141412</v>
+        <v>-0.9837460517895821</v>
       </c>
     </row>
     <row r="147">
@@ -2039,10 +2039,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.9815032763965639</v>
+        <v>-0.9836422361124753</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.9807351509488332</v>
+        <v>-0.9843211978388043</v>
       </c>
     </row>
     <row r="148">
@@ -2050,10 +2050,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.981556756292308</v>
+        <v>-0.9837399780302514</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.9815258513170113</v>
+        <v>-0.9844451845773778</v>
       </c>
     </row>
     <row r="149">
@@ -2061,10 +2061,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.9819081483200403</v>
+        <v>-0.9838366466186426</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.9823825794040038</v>
+        <v>-0.9844451845773778</v>
       </c>
     </row>
     <row r="150">
@@ -2072,10 +2072,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.982044632254824</v>
+        <v>-0.983912900341842</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.9825207869626227</v>
+        <v>-0.9852769605912647</v>
       </c>
     </row>
     <row r="151">
@@ -2083,10 +2083,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.9821029070610993</v>
+        <v>-0.9842278298454572</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.982619391490244</v>
+        <v>-0.985507603822028</v>
       </c>
     </row>
     <row r="152">
@@ -2094,10 +2094,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.982547361808332</v>
+        <v>-0.9848886227584233</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.9830341294307913</v>
+        <v>-0.9855441249966752</v>
       </c>
     </row>
     <row r="153">
@@ -2105,10 +2105,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.9829740613711574</v>
+        <v>-0.9850873186462884</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.9831306538492242</v>
+        <v>-0.9855458807949475</v>
       </c>
     </row>
     <row r="154">
@@ -2116,10 +2116,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.9834368347061715</v>
+        <v>-0.9851858607577187</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.9834389066959029</v>
+        <v>-0.9865088162318891</v>
       </c>
     </row>
     <row r="155">
@@ -2127,10 +2127,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.9844827891229747</v>
+        <v>-0.9854965449703107</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.9836370749319695</v>
+        <v>-0.9871481698596147</v>
       </c>
     </row>
     <row r="156">
@@ -2138,10 +2138,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.9845127020852389</v>
+        <v>-0.9855147974490128</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.9842389049222439</v>
+        <v>-0.9872456311071719</v>
       </c>
     </row>
     <row r="157">
@@ -2149,10 +2149,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.9845384316310063</v>
+        <v>-0.9855497277194786</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.9843528360858289</v>
+        <v>-0.9873510522986869</v>
       </c>
     </row>
     <row r="158">
@@ -2160,10 +2160,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.984792209671104</v>
+        <v>-0.9857282530216529</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.9844814523221472</v>
+        <v>-0.9876690579162286</v>
       </c>
     </row>
     <row r="159">
@@ -2171,10 +2171,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.9848508116656611</v>
+        <v>-0.9859482711368236</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.9849426992794037</v>
+        <v>-0.9876810179626608</v>
       </c>
     </row>
     <row r="160">
@@ -2182,10 +2182,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.9850723155064365</v>
+        <v>-0.9859482711368236</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.985207314363781</v>
+        <v>-0.9881493052857198</v>
       </c>
     </row>
     <row r="161">
@@ -2193,10 +2193,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.9856702285010706</v>
+        <v>-0.9860937759838134</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.9854486160731747</v>
+        <v>-0.9885355975400703</v>
       </c>
     </row>
     <row r="162">
@@ -2204,10 +2204,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.9858143112695482</v>
+        <v>-0.9861691239149429</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.9855626583418544</v>
+        <v>-0.9885631473643521</v>
       </c>
     </row>
     <row r="163">
@@ -2215,10 +2215,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.9858742987741853</v>
+        <v>-0.9866091240472253</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.9856890629035584</v>
+        <v>-0.9885631473643521</v>
       </c>
     </row>
     <row r="164">
@@ -2226,10 +2226,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.9858742987741853</v>
+        <v>-0.9869480811442208</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.9858878190091098</v>
+        <v>-0.9886357097185633</v>
       </c>
     </row>
     <row r="165">
@@ -2237,10 +2237,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.9859794398160262</v>
+        <v>-0.9872090963551889</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.9860564767842299</v>
+        <v>-0.9888088216415762</v>
       </c>
     </row>
     <row r="166">
@@ -2248,10 +2248,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.9863091255761148</v>
+        <v>-0.9872891541558283</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.9860564767842299</v>
+        <v>-0.9888088216415762</v>
       </c>
     </row>
     <row r="167">
@@ -2259,10 +2259,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.9868001297424394</v>
+        <v>-0.9874621645958266</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.9862254254575694</v>
+        <v>-0.9888922982382324</v>
       </c>
     </row>
     <row r="168">
@@ -2270,10 +2270,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.9869221448579809</v>
+        <v>-0.9874621645958266</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.9871009081119064</v>
+        <v>-0.9889673814018787</v>
       </c>
     </row>
     <row r="169">
@@ -2281,10 +2281,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.9869221448579809</v>
+        <v>-0.9876177841529099</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.9872995433791294</v>
+        <v>-0.9889789917827673</v>
       </c>
     </row>
     <row r="170">
@@ -2292,10 +2292,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.9869946005485378</v>
+        <v>-0.9876909148547023</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.9873007569412795</v>
+        <v>-0.9891208617326919</v>
       </c>
     </row>
     <row r="171">
@@ -2303,10 +2303,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.9869946005485378</v>
+        <v>-0.9881268868168459</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.9875631763600589</v>
+        <v>-0.9891208617326919</v>
       </c>
     </row>
     <row r="172">
@@ -2314,10 +2314,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.9869946458985102</v>
+        <v>-0.9890334872001314</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.9876495477176315</v>
+        <v>-0.9892367464060436</v>
       </c>
     </row>
     <row r="173">
@@ -2325,10 +2325,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.9876447546119873</v>
+        <v>-0.9893805529839191</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.9878686221680062</v>
+        <v>-0.9892367464060436</v>
       </c>
     </row>
     <row r="174">
@@ -2336,10 +2336,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.9878506369813556</v>
+        <v>-0.9893805529839191</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.9881540679868271</v>
+        <v>-0.989529369112677</v>
       </c>
     </row>
     <row r="175">
@@ -2347,10 +2347,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.9878743590361442</v>
+        <v>-0.9895659997220274</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.9883795006883841</v>
+        <v>-0.9896187504192921</v>
       </c>
     </row>
     <row r="176">
@@ -2358,10 +2358,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.9878743590361442</v>
+        <v>-0.9896377186499496</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.9886250226075961</v>
+        <v>-0.9896187504192921</v>
       </c>
     </row>
     <row r="177">
@@ -2369,10 +2369,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.9878743590361442</v>
+        <v>-0.989645817696669</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.9886511119992395</v>
+        <v>-0.9896372722467737</v>
       </c>
     </row>
     <row r="178">
@@ -2380,10 +2380,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.9881089119357657</v>
+        <v>-0.9898001099472215</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.988739899926224</v>
+        <v>-0.9896670271196427</v>
       </c>
     </row>
     <row r="179">
@@ -2391,10 +2391,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.9884822200048525</v>
+        <v>-0.9898001099472215</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.9887589898121117</v>
+        <v>-0.9898700305682624</v>
       </c>
     </row>
     <row r="180">
@@ -2402,10 +2402,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.9891628517077428</v>
+        <v>-0.9899087183765595</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.9890838846477706</v>
+        <v>-0.9900590635101176</v>
       </c>
     </row>
     <row r="181">
@@ -2413,10 +2413,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.9894333490358024</v>
+        <v>-0.9899587124735377</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.9893736718465856</v>
+        <v>-0.9900590635101176</v>
       </c>
     </row>
     <row r="182">
@@ -2424,10 +2424,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.9894442773706856</v>
+        <v>-0.9899682498281125</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.9893984820639727</v>
+        <v>-0.9900590635101176</v>
       </c>
     </row>
     <row r="183">
@@ -2435,10 +2435,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.9894473166017118</v>
+        <v>-0.9900060450585504</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.9900110532026229</v>
+        <v>-0.9905550126713111</v>
       </c>
     </row>
     <row r="184">
@@ -2446,10 +2446,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.9894730984020425</v>
+        <v>-0.9903528127552258</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.9900265324841451</v>
+        <v>-0.9907158583403917</v>
       </c>
     </row>
     <row r="185">
@@ -2457,10 +2457,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.9896740600112025</v>
+        <v>-0.9906051965168677</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.990130499892883</v>
+        <v>-0.9908452339393198</v>
       </c>
     </row>
     <row r="186">
@@ -2468,10 +2468,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.9896740600112025</v>
+        <v>-0.9907907621084491</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.9905264253976438</v>
+        <v>-0.9910120410275673</v>
       </c>
     </row>
     <row r="187">
@@ -2479,10 +2479,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.9899101127284143</v>
+        <v>-0.990796327256811</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.9906482815144685</v>
+        <v>-0.991415794267825</v>
       </c>
     </row>
     <row r="188">
@@ -2490,10 +2490,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.9907737700913443</v>
+        <v>-0.9909286628638931</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.9906482815144685</v>
+        <v>-0.9915357435387978</v>
       </c>
     </row>
     <row r="189">
@@ -2501,10 +2501,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.9907753870947887</v>
+        <v>-0.9909760253012823</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.9908842019869033</v>
+        <v>-0.991840098189453</v>
       </c>
     </row>
     <row r="190">
@@ -2512,10 +2512,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.9907753870947887</v>
+        <v>-0.9910151866890337</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.9913337163536946</v>
+        <v>-0.9920327897936331</v>
       </c>
     </row>
     <row r="191">
@@ -2523,10 +2523,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.9909522855166528</v>
+        <v>-0.9916930005626091</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.9913509007185684</v>
+        <v>-0.9920459655988475</v>
       </c>
     </row>
     <row r="192">
@@ -2534,10 +2534,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.9911914972252321</v>
+        <v>-0.9917483096098297</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.9913509007185684</v>
+        <v>-0.9920459655988475</v>
       </c>
     </row>
     <row r="193">
@@ -2545,10 +2545,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.9912652977402605</v>
+        <v>-0.9923845291397515</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.9913509007185684</v>
+        <v>-0.9921579060262775</v>
       </c>
     </row>
     <row r="194">
@@ -2556,10 +2556,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.9913522976662982</v>
+        <v>-0.9923845291397515</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.9913567246679716</v>
+        <v>-0.9923493538193146</v>
       </c>
     </row>
     <row r="195">
@@ -2567,10 +2567,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.9917312308925371</v>
+        <v>-0.9926316305687501</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.9914267364085549</v>
+        <v>-0.9923493538193146</v>
       </c>
     </row>
     <row r="196">
@@ -2578,10 +2578,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.9920003934798275</v>
+        <v>-0.9926316305687501</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.9919425602548853</v>
+        <v>-0.9925894425872577</v>
       </c>
     </row>
     <row r="197">
@@ -2589,10 +2589,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.9920003934798275</v>
+        <v>-0.9927034513354329</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.9919425602548853</v>
+        <v>-0.9927128861809896</v>
       </c>
     </row>
     <row r="198">
@@ -2600,10 +2600,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.9922315054347838</v>
+        <v>-0.992734295361608</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.9919425602548853</v>
+        <v>-0.9927128861809896</v>
       </c>
     </row>
     <row r="199">
@@ -2611,10 +2611,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.9922315054347838</v>
+        <v>-0.9928306385955105</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.992033340932847</v>
+        <v>-0.9928399788772218</v>
       </c>
     </row>
     <row r="200">
@@ -2622,10 +2622,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.9923460114081912</v>
+        <v>-0.9929644866537555</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.992658538598617</v>
+        <v>-0.9931596266245175</v>
       </c>
     </row>
     <row r="201">
@@ -2633,10 +2633,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.992355055673779</v>
+        <v>-0.993023612900759</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.9926901660176642</v>
+        <v>-0.9932241316194639</v>
       </c>
     </row>
     <row r="202">
@@ -2644,10 +2644,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.9924338544397603</v>
+        <v>-0.9934010099105935</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.9929691155605207</v>
+        <v>-0.9932241316194639</v>
       </c>
     </row>
     <row r="203">
@@ -2655,10 +2655,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.9924338544397603</v>
+        <v>-0.9939678530554802</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.9930329067370317</v>
+        <v>-0.9932241316194639</v>
       </c>
     </row>
     <row r="204">
@@ -2666,10 +2666,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.9926525344298828</v>
+        <v>-0.9939930028419713</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.9931024357986286</v>
+        <v>-0.9934894258942368</v>
       </c>
     </row>
     <row r="205">
@@ -2677,10 +2677,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.9926820192053734</v>
+        <v>-0.9943264967551945</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.9931566391093224</v>
+        <v>-0.9934894258942368</v>
       </c>
     </row>
     <row r="206">
@@ -2688,10 +2688,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.9928074503880038</v>
+        <v>-0.9943264967551945</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.9931566391093224</v>
+        <v>-0.9936394652002543</v>
       </c>
     </row>
     <row r="207">
@@ -2699,10 +2699,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.9928190162007249</v>
+        <v>-0.9943573626461459</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.9931904892163871</v>
+        <v>-0.9936927209306328</v>
       </c>
     </row>
     <row r="208">
@@ -2710,10 +2710,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.9929896998528004</v>
+        <v>-0.9944413672110877</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.9933562009663183</v>
+        <v>-0.9936927209306328</v>
       </c>
     </row>
     <row r="209">
@@ -2721,10 +2721,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.9931919958747115</v>
+        <v>-0.9944510533513836</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.9933960711087103</v>
+        <v>-0.9936961528674348</v>
       </c>
     </row>
     <row r="210">
@@ -2732,10 +2732,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.9932224943246786</v>
+        <v>-0.9944676376589886</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.9934825052558081</v>
+        <v>-0.9936961528674348</v>
       </c>
     </row>
     <row r="211">
@@ -2743,10 +2743,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.9933471509219802</v>
+        <v>-0.9945805755205029</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.9935818671545256</v>
+        <v>-0.9936961528674348</v>
       </c>
     </row>
     <row r="212">
@@ -2754,10 +2754,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.9934121438515647</v>
+        <v>-0.9947805841720131</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.993879070627626</v>
+        <v>-0.9937915865555513</v>
       </c>
     </row>
     <row r="213">
@@ -2765,10 +2765,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.9934121438515647</v>
+        <v>-0.9947805841720131</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.994058114646775</v>
+        <v>-0.9937915865555513</v>
       </c>
     </row>
     <row r="214">
@@ -2776,10 +2776,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.9935872089505751</v>
+        <v>-0.9949455617108783</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.994058114646775</v>
+        <v>-0.9938468592678809</v>
       </c>
     </row>
     <row r="215">
@@ -2787,10 +2787,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.9935890394458819</v>
+        <v>-0.9949455617108783</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.9940784595312866</v>
+        <v>-0.9938468592678809</v>
       </c>
     </row>
     <row r="216">
@@ -2798,10 +2798,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.9935976872210981</v>
+        <v>-0.9950241499236249</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.9941020602978068</v>
+        <v>-0.9939859697948239</v>
       </c>
     </row>
     <row r="217">
@@ -2809,10 +2809,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.9935976872210981</v>
+        <v>-0.9950286043262192</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.9941535728453041</v>
+        <v>-0.9940142652617965</v>
       </c>
     </row>
     <row r="218">
@@ -2820,10 +2820,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.9935976872210981</v>
+        <v>-0.9951620425590544</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.9943682569034471</v>
+        <v>-0.9940142652617965</v>
       </c>
     </row>
     <row r="219">
@@ -2831,10 +2831,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.9936113332996817</v>
+        <v>-0.9952727074433487</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.9944986096980155</v>
+        <v>-0.9940142652617965</v>
       </c>
     </row>
     <row r="220">
@@ -2842,10 +2842,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.9936212073349111</v>
+        <v>-0.9952727074433487</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.9945758191573048</v>
+        <v>-0.9940265072822888</v>
       </c>
     </row>
     <row r="221">
@@ -2853,10 +2853,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.9937403524793563</v>
+        <v>-0.9952915520875681</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.9945758191573048</v>
+        <v>-0.9940265072822888</v>
       </c>
     </row>
     <row r="222">
@@ -2864,10 +2864,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.993890167935055</v>
+        <v>-0.9952915520875681</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.9947666358718992</v>
+        <v>-0.9940640670030908</v>
       </c>
     </row>
     <row r="223">
@@ -2875,10 +2875,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.9940742678918185</v>
+        <v>-0.9953483992552757</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.9947666358718992</v>
+        <v>-0.9941049686975809</v>
       </c>
     </row>
     <row r="224">
@@ -2886,10 +2886,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.9941867131285045</v>
+        <v>-0.9953497799664306</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.9948075962547405</v>
+        <v>-0.9944557825886087</v>
       </c>
     </row>
     <row r="225">
@@ -2897,10 +2897,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.9942562124614127</v>
+        <v>-0.9953687493072683</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.9948363572996202</v>
+        <v>-0.9949086211711198</v>
       </c>
     </row>
     <row r="226">
@@ -2908,10 +2908,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.9943410864421248</v>
+        <v>-0.9955210403849374</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.994938684033231</v>
+        <v>-0.9949599790240332</v>
       </c>
     </row>
     <row r="227">
@@ -2919,10 +2919,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.9944095691294405</v>
+        <v>-0.9955849148381917</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.9949930588347887</v>
+        <v>-0.9951424810997773</v>
       </c>
     </row>
     <row r="228">
@@ -2930,10 +2930,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.9944095691294405</v>
+        <v>-0.9956517335320062</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.9950163159963512</v>
+        <v>-0.9951424810997773</v>
       </c>
     </row>
     <row r="229">
@@ -2941,10 +2941,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.9944389990248684</v>
+        <v>-0.995774378926247</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.9950163159963512</v>
+        <v>-0.9952374552233064</v>
       </c>
     </row>
     <row r="230">
@@ -2952,10 +2952,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.9947571478126608</v>
+        <v>-0.9958052642728897</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.9951345879758782</v>
+        <v>-0.9954509704057185</v>
       </c>
     </row>
     <row r="231">
@@ -2963,10 +2963,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.9947853081259197</v>
+        <v>-0.9960173487949865</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.9952859461450455</v>
+        <v>-0.9954793747410866</v>
       </c>
     </row>
     <row r="232">
@@ -2974,10 +2974,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.9949856627759107</v>
+        <v>-0.9960173487949865</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.9952859461450455</v>
+        <v>-0.9955010145345454</v>
       </c>
     </row>
     <row r="233">
@@ -2985,10 +2985,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.9954684524627223</v>
+        <v>-0.9960382064429882</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.9954162255513208</v>
+        <v>-0.9955168787971661</v>
       </c>
     </row>
     <row r="234">
@@ -2996,10 +2996,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.9958724048431463</v>
+        <v>-0.9960382064429882</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.9955852760848305</v>
+        <v>-0.9957481221104275</v>
       </c>
     </row>
     <row r="235">
@@ -3007,10 +3007,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.9960167247038852</v>
+        <v>-0.9960492671786515</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.9955852760848305</v>
+        <v>-0.9958086339394429</v>
       </c>
     </row>
     <row r="236">
@@ -3018,10 +3018,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.9960954521975678</v>
+        <v>-0.9961188911393337</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.9955852760848305</v>
+        <v>-0.9958086339394429</v>
       </c>
     </row>
     <row r="237">
@@ -3029,10 +3029,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.9961462376508368</v>
+        <v>-0.9961718355605522</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.995640397628473</v>
+        <v>-0.9959346516170906</v>
       </c>
     </row>
     <row r="238">
@@ -3040,10 +3040,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.9962015550154425</v>
+        <v>-0.9962872182272904</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.9957649268795111</v>
+        <v>-0.9959669380242839</v>
       </c>
     </row>
     <row r="239">
@@ -3051,10 +3051,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.9962334388380231</v>
+        <v>-0.9962872182272904</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.9958925749746596</v>
+        <v>-0.9959669380242839</v>
       </c>
     </row>
     <row r="240">
@@ -3062,10 +3062,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.9962334388380231</v>
+        <v>-0.9963557503039502</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.9961032613804801</v>
+        <v>-0.9962595122675266</v>
       </c>
     </row>
     <row r="241">
@@ -3073,10 +3073,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.9963076836485243</v>
+        <v>-0.9964022008065282</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.99610467082914</v>
+        <v>-0.9963624354301355</v>
       </c>
     </row>
     <row r="242">
@@ -3084,10 +3084,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.9963095907347709</v>
+        <v>-0.9964612790083368</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.99610467082914</v>
+        <v>-0.9964846984236259</v>
       </c>
     </row>
     <row r="243">
@@ -3095,10 +3095,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.9963095907347709</v>
+        <v>-0.9964944445038469</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.99610467082914</v>
+        <v>-0.9965372425475327</v>
       </c>
     </row>
     <row r="244">
@@ -3106,10 +3106,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.9963136943642037</v>
+        <v>-0.9964944445038469</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.9961248505163033</v>
+        <v>-0.9965422064106632</v>
       </c>
     </row>
     <row r="245">
@@ -3117,10 +3117,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.9963369024904192</v>
+        <v>-0.9965015294160612</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.9962560073422579</v>
+        <v>-0.9965422064106632</v>
       </c>
     </row>
     <row r="246">
@@ -3128,10 +3128,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.9963430883342926</v>
+        <v>-0.9965533108373923</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.9964057824807881</v>
+        <v>-0.996603517037971</v>
       </c>
     </row>
     <row r="247">
@@ -3139,10 +3139,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.9963430883342926</v>
+        <v>-0.9965742627959507</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.9964195539164811</v>
+        <v>-0.9967165134227498</v>
       </c>
     </row>
     <row r="248">
@@ -3150,10 +3150,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.9964457124201312</v>
+        <v>-0.9965742627959507</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.9964975174696746</v>
+        <v>-0.9967242093770067</v>
       </c>
     </row>
     <row r="249">
@@ -3161,10 +3161,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.9964752894115441</v>
+        <v>-0.996595205168633</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.9965418678627702</v>
+        <v>-0.9967444598425509</v>
       </c>
     </row>
     <row r="250">
@@ -3172,10 +3172,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.9964786540160369</v>
+        <v>-0.9967214606244303</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.9965931405596856</v>
+        <v>-0.9968218877530038</v>
       </c>
     </row>
     <row r="251">
@@ -3183,10 +3183,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.9966577182858701</v>
+        <v>-0.9967670394713596</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.9966793462034595</v>
+        <v>-0.9968230121004056</v>
       </c>
     </row>
     <row r="252">
@@ -3194,10 +3194,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.9967615678061835</v>
+        <v>-0.9969100878580313</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.9966958098064224</v>
+        <v>-0.9968927091302434</v>
       </c>
     </row>
     <row r="253">
@@ -3205,10 +3205,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.9968215154014595</v>
+        <v>-0.9969894256122208</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.9966958098064224</v>
+        <v>-0.9968927091302434</v>
       </c>
     </row>
     <row r="254">
@@ -3216,10 +3216,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.9969624316329964</v>
+        <v>-0.9970784714084813</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.9967473377048406</v>
+        <v>-0.9969132257214514</v>
       </c>
     </row>
     <row r="255">
@@ -3227,10 +3227,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.9971888893187891</v>
+        <v>-0.9970784714084813</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.9968049592641561</v>
+        <v>-0.9969132257214514</v>
       </c>
     </row>
     <row r="256">
@@ -3238,10 +3238,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.9972668759140252</v>
+        <v>-0.9970806791967237</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.99690102035034</v>
+        <v>-0.9969492219984333</v>
       </c>
     </row>
     <row r="257">
@@ -3249,10 +3249,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.997314101917166</v>
+        <v>-0.9970806791967237</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.9970291889640189</v>
+        <v>-0.997035009067146</v>
       </c>
     </row>
     <row r="258">
@@ -3260,10 +3260,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.997314101917166</v>
+        <v>-0.9970973588407804</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.9970291889640189</v>
+        <v>-0.9970782431462918</v>
       </c>
     </row>
     <row r="259">
@@ -3271,10 +3271,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.9973206709373064</v>
+        <v>-0.9971149679826112</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.9970291889640189</v>
+        <v>-0.997098786355023</v>
       </c>
     </row>
     <row r="260">
@@ -3282,10 +3282,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.9973994583863434</v>
+        <v>-0.9971436067887929</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.997049137694283</v>
+        <v>-0.9971206687394585</v>
       </c>
     </row>
     <row r="261">
@@ -3293,10 +3293,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.9975412312929661</v>
+        <v>-0.9971436067887929</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.997077919938816</v>
+        <v>-0.9971462021630613</v>
       </c>
     </row>
     <row r="262">
@@ -3304,10 +3304,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.9976171898674321</v>
+        <v>-0.9972663368190565</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.9971172926534057</v>
+        <v>-0.9972809987346458</v>
       </c>
     </row>
     <row r="263">
@@ -3315,10 +3315,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.9976171898674321</v>
+        <v>-0.9973404956902696</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.9971686729114559</v>
+        <v>-0.9973437845258565</v>
       </c>
     </row>
     <row r="264">
@@ -3326,10 +3326,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.9976953870757389</v>
+        <v>-0.9974424319221384</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.9972520066217321</v>
+        <v>-0.997484949982017</v>
       </c>
     </row>
     <row r="265">
@@ -3337,10 +3337,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.9977829281738955</v>
+        <v>-0.9974424882848963</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.9974436014285244</v>
+        <v>-0.997484949982017</v>
       </c>
     </row>
     <row r="266">
@@ -3348,10 +3348,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.9978081804573106</v>
+        <v>-0.9974827582364872</v>
       </c>
       <c r="C266" t="n">
-        <v>-0.9974486240010673</v>
+        <v>-0.9974877090588208</v>
       </c>
     </row>
     <row r="267">
@@ -3359,10 +3359,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.997808403426374</v>
+        <v>-0.9974827582364872</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.9975947551952167</v>
+        <v>-0.9975906261327276</v>
       </c>
     </row>
     <row r="268">
@@ -3370,10 +3370,10 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.997808403426374</v>
+        <v>-0.9975596730473119</v>
       </c>
       <c r="C268" t="n">
-        <v>-0.9976710911982937</v>
+        <v>-0.9976027430484087</v>
       </c>
     </row>
     <row r="269">
@@ -3381,10 +3381,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.9978334555983892</v>
+        <v>-0.9976223946836879</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.9976710911982937</v>
+        <v>-0.9977476773772724</v>
       </c>
     </row>
     <row r="270">
@@ -3392,10 +3392,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.9978409474427782</v>
+        <v>-0.9977217546969906</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.9976710911982937</v>
+        <v>-0.9977563522414371</v>
       </c>
     </row>
     <row r="271">
@@ -3403,10 +3403,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.9978507625932933</v>
+        <v>-0.9977778244050544</v>
       </c>
       <c r="C271" t="n">
-        <v>-0.997811936598176</v>
+        <v>-0.9977563522414371</v>
       </c>
     </row>
     <row r="272">
@@ -3414,10 +3414,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.9978507625932933</v>
+        <v>-0.99780835366669</v>
       </c>
       <c r="C272" t="n">
-        <v>-0.997879910619859</v>
+        <v>-0.99777076224035</v>
       </c>
     </row>
     <row r="273">
@@ -3425,10 +3425,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.9979546450053658</v>
+        <v>-0.99780835366669</v>
       </c>
       <c r="C273" t="n">
-        <v>-0.9979126075791634</v>
+        <v>-0.9977780422989381</v>
       </c>
     </row>
     <row r="274">
@@ -3436,10 +3436,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.9979821675346691</v>
+        <v>-0.99780835366669</v>
       </c>
       <c r="C274" t="n">
-        <v>-0.9979497037920727</v>
+        <v>-0.9977780422989381</v>
       </c>
     </row>
     <row r="275">
@@ -3447,10 +3447,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.9979982803599244</v>
+        <v>-0.9978385909352118</v>
       </c>
       <c r="C275" t="n">
-        <v>-0.9979497037920727</v>
+        <v>-0.9978075733869776</v>
       </c>
     </row>
     <row r="276">
@@ -3458,10 +3458,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.9980154501396687</v>
+        <v>-0.9978385909352118</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.9979500615657586</v>
+        <v>-0.9978617210200753</v>
       </c>
     </row>
     <row r="277">
@@ -3469,10 +3469,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.9980154501396687</v>
+        <v>-0.9978385909352118</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.998016674571839</v>
+        <v>-0.997893645627515</v>
       </c>
     </row>
     <row r="278">
@@ -3480,10 +3480,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.998066093133304</v>
+        <v>-0.9978491723996753</v>
       </c>
       <c r="C278" t="n">
-        <v>-0.9980472671040035</v>
+        <v>-0.9979096397951477</v>
       </c>
     </row>
     <row r="279">
@@ -3491,10 +3491,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.9980815741626112</v>
+        <v>-0.9979405777813658</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.9980656519979553</v>
+        <v>-0.9979108690376816</v>
       </c>
     </row>
     <row r="280">
@@ -3502,10 +3502,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.9980815741626112</v>
+        <v>-0.9979873806364759</v>
       </c>
       <c r="C280" t="n">
-        <v>-0.9980756730960261</v>
+        <v>-0.9979108690376816</v>
       </c>
     </row>
     <row r="281">
@@ -3513,10 +3513,10 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.9981340126683249</v>
+        <v>-0.9979873806364759</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.9980803825458965</v>
+        <v>-0.9979108690376816</v>
       </c>
     </row>
     <row r="282">
@@ -3524,10 +3524,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.9981495999102727</v>
+        <v>-0.9979873806364759</v>
       </c>
       <c r="C282" t="n">
-        <v>-0.9980803825458965</v>
+        <v>-0.9979188166501735</v>
       </c>
     </row>
     <row r="283">
@@ -3535,10 +3535,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.9981642340504863</v>
+        <v>-0.9979964787521999</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.9981708790426417</v>
+        <v>-0.99794891710098</v>
       </c>
     </row>
     <row r="284">
@@ -3546,10 +3546,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.9982169289058214</v>
+        <v>-0.9980222955479021</v>
       </c>
       <c r="C284" t="n">
-        <v>-0.9983259883925062</v>
+        <v>-0.9979954734586122</v>
       </c>
     </row>
     <row r="285">
@@ -3557,10 +3557,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.9982296344179877</v>
+        <v>-0.9980600296415026</v>
       </c>
       <c r="C285" t="n">
-        <v>-0.9983762731468991</v>
+        <v>-0.9980016342986492</v>
       </c>
     </row>
     <row r="286">
@@ -3568,10 +3568,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.9983445879822048</v>
+        <v>-0.9980600296415026</v>
       </c>
       <c r="C286" t="n">
-        <v>-0.9983898237210126</v>
+        <v>-0.9980465266042571</v>
       </c>
     </row>
     <row r="287">
@@ -3579,10 +3579,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.9984117837612364</v>
+        <v>-0.9981391316434403</v>
       </c>
       <c r="C287" t="n">
-        <v>-0.9983898237210126</v>
+        <v>-0.9981282423180198</v>
       </c>
     </row>
     <row r="288">
@@ -3590,10 +3590,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.9984117837612364</v>
+        <v>-0.9981710414135059</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.9983906138376284</v>
+        <v>-0.9981450992869496</v>
       </c>
     </row>
     <row r="289">
@@ -3601,10 +3601,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.9984292037125609</v>
+        <v>-0.9981938329157397</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.9984069375169408</v>
+        <v>-0.9981675427082176</v>
       </c>
     </row>
     <row r="290">
@@ -3612,10 +3612,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.99844797840614</v>
+        <v>-0.9982030760312274</v>
       </c>
       <c r="C290" t="n">
-        <v>-0.9984069375169408</v>
+        <v>-0.9981800525827599</v>
       </c>
     </row>
     <row r="291">
@@ -3623,10 +3623,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.9984678950306535</v>
+        <v>-0.9982382002788464</v>
       </c>
       <c r="C291" t="n">
-        <v>-0.998456401221905</v>
+        <v>-0.9982021612468818</v>
       </c>
     </row>
     <row r="292">
@@ -3634,10 +3634,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.9985205861175765</v>
+        <v>-0.9982382042689518</v>
       </c>
       <c r="C292" t="n">
-        <v>-0.998456401221905</v>
+        <v>-0.9982030232741527</v>
       </c>
     </row>
     <row r="293">
@@ -3645,10 +3645,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.998553468767584</v>
+        <v>-0.9982408541682538</v>
       </c>
       <c r="C293" t="n">
-        <v>-0.9984601880579479</v>
+        <v>-0.9982522549173933</v>
       </c>
     </row>
     <row r="294">
@@ -3656,10 +3656,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.9986112865854884</v>
+        <v>-0.9982909817569555</v>
       </c>
       <c r="C294" t="n">
-        <v>-0.9984601880579479</v>
+        <v>-0.99830740045461</v>
       </c>
     </row>
     <row r="295">
@@ -3667,10 +3667,10 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.9986221228547778</v>
+        <v>-0.9983177057364959</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.9984601880579479</v>
+        <v>-0.9983164156358987</v>
       </c>
     </row>
     <row r="296">
@@ -3678,10 +3678,10 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.9986492427149133</v>
+        <v>-0.9983177057364959</v>
       </c>
       <c r="C296" t="n">
-        <v>-0.9984609619113753</v>
+        <v>-0.9983249522872083</v>
       </c>
     </row>
     <row r="297">
@@ -3689,10 +3689,10 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.9986638262576335</v>
+        <v>-0.9983254467602349</v>
       </c>
       <c r="C297" t="n">
-        <v>-0.9984609619113753</v>
+        <v>-0.9983535050146344</v>
       </c>
     </row>
     <row r="298">
@@ -3700,10 +3700,10 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.9986895989053408</v>
+        <v>-0.9983254467602349</v>
       </c>
       <c r="C298" t="n">
-        <v>-0.9984663164902003</v>
+        <v>-0.9983547000482861</v>
       </c>
     </row>
     <row r="299">
@@ -3711,10 +3711,10 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.9986922354016882</v>
+        <v>-0.9983609811927013</v>
       </c>
       <c r="C299" t="n">
-        <v>-0.9984668082943082</v>
+        <v>-0.9984262253236713</v>
       </c>
     </row>
     <row r="300">
@@ -3722,10 +3722,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.9987113363601593</v>
+        <v>-0.9983609811927013</v>
       </c>
       <c r="C300" t="n">
-        <v>-0.9984737771756932</v>
+        <v>-0.9984465071599934</v>
       </c>
     </row>
     <row r="301">
@@ -3733,10 +3733,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.9987113363601593</v>
+        <v>-0.9983623522339806</v>
       </c>
       <c r="C301" t="n">
-        <v>-0.9984842747643025</v>
+        <v>-0.9984481278891379</v>
       </c>
     </row>
   </sheetData>
@@ -3989,7 +3989,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C21" t="n">
         <v>3.005203820042824</v>
@@ -4000,7 +4000,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C22" t="n">
         <v>3.005203820042824</v>
@@ -4011,7 +4011,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C23" t="n">
         <v>3.005203820042824</v>
@@ -4022,7 +4022,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C24" t="n">
         <v>3.005203820042824</v>
@@ -4033,7 +4033,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C25" t="n">
         <v>3.005203820042824</v>
@@ -4044,7 +4044,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C26" t="n">
         <v>3.005203820042824</v>
@@ -4055,7 +4055,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C27" t="n">
         <v>3.005203820042824</v>
@@ -4066,7 +4066,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C28" t="n">
         <v>3.005203820042824</v>
@@ -4077,7 +4077,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C29" t="n">
         <v>3.005203820042824</v>
@@ -4088,7 +4088,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C30" t="n">
         <v>3.005203820042824</v>
@@ -4099,7 +4099,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C31" t="n">
         <v>3.005203820042824</v>
@@ -4110,7 +4110,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C32" t="n">
         <v>3.005203820042824</v>
@@ -4121,7 +4121,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C33" t="n">
         <v>3.005203820042824</v>
@@ -4132,7 +4132,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C34" t="n">
         <v>3.005203820042824</v>
@@ -4143,7 +4143,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C35" t="n">
         <v>3.005203820042824</v>
@@ -4154,7 +4154,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C36" t="n">
         <v>3.005203820042824</v>
@@ -4165,7 +4165,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C37" t="n">
         <v>3.005203820042824</v>
@@ -4176,7 +4176,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C38" t="n">
         <v>3.005203820042824</v>
@@ -4187,7 +4187,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C39" t="n">
         <v>3.005203820042824</v>
@@ -4198,7 +4198,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.010507120901723</v>
+        <v>3.005203820042824</v>
       </c>
       <c r="C40" t="n">
         <v>3.005203820042824</v>
@@ -4209,7 +4209,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C41" t="n">
         <v>2.554423247036398</v>
@@ -4220,7 +4220,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C42" t="n">
         <v>2.554423247036398</v>
@@ -4231,7 +4231,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C43" t="n">
         <v>2.554423247036398</v>
@@ -4242,7 +4242,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C44" t="n">
         <v>2.554423247036398</v>
@@ -4253,7 +4253,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C45" t="n">
         <v>2.554423247036398</v>
@@ -4264,7 +4264,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C46" t="n">
         <v>2.554423247036398</v>
@@ -4275,7 +4275,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C47" t="n">
         <v>2.554423247036398</v>
@@ -4286,7 +4286,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C48" t="n">
         <v>2.554423247036398</v>
@@ -4297,7 +4297,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C49" t="n">
         <v>2.554423247036398</v>
@@ -4308,7 +4308,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C50" t="n">
         <v>2.554423247036398</v>
@@ -4319,7 +4319,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C51" t="n">
         <v>2.554423247036398</v>
@@ -4330,7 +4330,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C52" t="n">
         <v>2.554423247036398</v>
@@ -4341,7 +4341,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C53" t="n">
         <v>2.554423247036398</v>
@@ -4352,7 +4352,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C54" t="n">
         <v>2.554423247036398</v>
@@ -4363,7 +4363,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C55" t="n">
         <v>2.554423247036398</v>
@@ -4374,7 +4374,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C56" t="n">
         <v>2.554423247036398</v>
@@ -4385,7 +4385,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C57" t="n">
         <v>2.554423247036398</v>
@@ -4396,7 +4396,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C58" t="n">
         <v>2.554423247036398</v>
@@ -4407,7 +4407,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C59" t="n">
         <v>2.554423247036398</v>
@@ -4418,7 +4418,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.558931052766463</v>
+        <v>2.554423247036398</v>
       </c>
       <c r="C60" t="n">
         <v>2.554423247036398</v>
@@ -4429,7 +4429,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C61" t="n">
         <v>2.171259759980947</v>
@@ -4440,7 +4440,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C62" t="n">
         <v>2.171259759980947</v>
@@ -4451,7 +4451,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C63" t="n">
         <v>2.171259759980947</v>
@@ -4462,7 +4462,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C64" t="n">
         <v>2.171259759980947</v>
@@ -4473,7 +4473,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C65" t="n">
         <v>2.171259759980947</v>
@@ -4484,7 +4484,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C66" t="n">
         <v>2.171259759980947</v>
@@ -4495,7 +4495,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C67" t="n">
         <v>2.171259759980947</v>
@@ -4506,7 +4506,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C68" t="n">
         <v>2.171259759980947</v>
@@ -4517,7 +4517,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C69" t="n">
         <v>2.171259759980947</v>
@@ -4528,7 +4528,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C70" t="n">
         <v>2.171259759980947</v>
@@ -4539,7 +4539,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C71" t="n">
         <v>2.171259759980947</v>
@@ -4550,7 +4550,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C72" t="n">
         <v>2.171259759980947</v>
@@ -4561,7 +4561,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C73" t="n">
         <v>2.171259759980947</v>
@@ -4572,7 +4572,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C74" t="n">
         <v>2.171259759980947</v>
@@ -4583,7 +4583,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C75" t="n">
         <v>2.171259759980947</v>
@@ -4594,7 +4594,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C76" t="n">
         <v>2.171259759980947</v>
@@ -4605,7 +4605,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C77" t="n">
         <v>2.171259759980947</v>
@@ -4616,7 +4616,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C78" t="n">
         <v>2.171259759980947</v>
@@ -4627,7 +4627,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C79" t="n">
         <v>2.171259759980947</v>
@@ -4638,7 +4638,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.175091394851502</v>
+        <v>2.171259759980947</v>
       </c>
       <c r="C80" t="n">
         <v>2.171259759980947</v>
@@ -4649,7 +4649,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C81" t="n">
         <v>1.845570795983803</v>
@@ -4660,7 +4660,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C82" t="n">
         <v>1.845570795983803</v>
@@ -4671,7 +4671,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C83" t="n">
         <v>1.845570795983803</v>
@@ -4682,7 +4682,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C84" t="n">
         <v>1.845570795983803</v>
@@ -4693,7 +4693,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C85" t="n">
         <v>1.845570795983803</v>
@@ -4704,7 +4704,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C86" t="n">
         <v>1.845570795983803</v>
@@ -4715,7 +4715,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C87" t="n">
         <v>1.845570795983803</v>
@@ -4726,7 +4726,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C88" t="n">
         <v>1.845570795983803</v>
@@ -4737,7 +4737,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C89" t="n">
         <v>1.845570795983803</v>
@@ -4748,7 +4748,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C90" t="n">
         <v>1.845570795983803</v>
@@ -4759,7 +4759,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C91" t="n">
         <v>1.845570795983803</v>
@@ -4770,7 +4770,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C92" t="n">
         <v>1.845570795983803</v>
@@ -4781,7 +4781,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C93" t="n">
         <v>1.845570795983803</v>
@@ -4792,7 +4792,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C94" t="n">
         <v>1.845570795983803</v>
@@ -4803,7 +4803,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C95" t="n">
         <v>1.845570795983803</v>
@@ -4814,7 +4814,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C96" t="n">
         <v>1.845570795983803</v>
@@ -4825,7 +4825,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C97" t="n">
         <v>1.845570795983803</v>
@@ -4836,7 +4836,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C98" t="n">
         <v>1.845570795983803</v>
@@ -4847,7 +4847,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C99" t="n">
         <v>1.845570795983803</v>
@@ -4858,7 +4858,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.848827685623775</v>
+        <v>1.845570795983803</v>
       </c>
       <c r="C100" t="n">
         <v>1.845570795983803</v>
@@ -4869,7 +4869,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C101" t="n">
         <v>1.568735176586233</v>
@@ -4880,7 +4880,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C102" t="n">
         <v>1.568735176586233</v>
@@ -4891,7 +4891,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C103" t="n">
         <v>1.568735176586233</v>
@@ -4902,7 +4902,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C104" t="n">
         <v>1.568735176586233</v>
@@ -4913,7 +4913,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C105" t="n">
         <v>1.568735176586233</v>
@@ -4924,7 +4924,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C106" t="n">
         <v>1.568735176586233</v>
@@ -4935,7 +4935,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C107" t="n">
         <v>1.568735176586233</v>
@@ -4946,7 +4946,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C108" t="n">
         <v>1.568735176586233</v>
@@ -4957,7 +4957,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C109" t="n">
         <v>1.568735176586233</v>
@@ -4968,7 +4968,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C110" t="n">
         <v>1.568735176586233</v>
@@ -4979,7 +4979,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C111" t="n">
         <v>1.568735176586233</v>
@@ -4990,7 +4990,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C112" t="n">
         <v>1.568735176586233</v>
@@ -5001,7 +5001,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C113" t="n">
         <v>1.568735176586233</v>
@@ -5012,7 +5012,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C114" t="n">
         <v>1.568735176586233</v>
@@ -5023,7 +5023,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C115" t="n">
         <v>1.568735176586233</v>
@@ -5034,7 +5034,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C116" t="n">
         <v>1.568735176586233</v>
@@ -5045,7 +5045,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C117" t="n">
         <v>1.568735176586233</v>
@@ -5056,7 +5056,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C118" t="n">
         <v>1.568735176586233</v>
@@ -5067,7 +5067,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C119" t="n">
         <v>1.568735176586233</v>
@@ -5078,7 +5078,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.571503532780209</v>
+        <v>1.568735176586233</v>
       </c>
       <c r="C120" t="n">
         <v>1.568735176586233</v>
@@ -5089,7 +5089,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C121" t="n">
         <v>1.333424900098295</v>
@@ -5100,7 +5100,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C122" t="n">
         <v>1.333424900098295</v>
@@ -5111,7 +5111,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C123" t="n">
         <v>1.333424900098295</v>
@@ -5122,7 +5122,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C124" t="n">
         <v>1.333424900098295</v>
@@ -5133,7 +5133,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C125" t="n">
         <v>1.333424900098295</v>
@@ -5144,7 +5144,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C126" t="n">
         <v>1.333424900098295</v>
@@ -5155,7 +5155,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C127" t="n">
         <v>1.333424900098295</v>
@@ -5166,7 +5166,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C128" t="n">
         <v>1.333424900098295</v>
@@ -5177,7 +5177,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C129" t="n">
         <v>1.333424900098295</v>
@@ -5188,7 +5188,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C130" t="n">
         <v>1.333424900098295</v>
@@ -5199,7 +5199,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C131" t="n">
         <v>1.333424900098295</v>
@@ -5210,7 +5210,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C132" t="n">
         <v>1.333424900098295</v>
@@ -5221,7 +5221,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C133" t="n">
         <v>1.333424900098295</v>
@@ -5232,7 +5232,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C134" t="n">
         <v>1.333424900098295</v>
@@ -5243,7 +5243,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C135" t="n">
         <v>1.333424900098295</v>
@@ -5254,7 +5254,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C136" t="n">
         <v>1.333424900098295</v>
@@ -5265,7 +5265,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C137" t="n">
         <v>1.333424900098295</v>
@@ -5276,7 +5276,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C138" t="n">
         <v>1.333424900098295</v>
@@ -5287,7 +5287,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C139" t="n">
         <v>1.333424900098295</v>
@@ -5298,7 +5298,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.335778002863174</v>
+        <v>1.333424900098295</v>
       </c>
       <c r="C140" t="n">
         <v>1.333424900098295</v>
@@ -5309,7 +5309,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C141" t="n">
         <v>1.133411165083554</v>
@@ -5320,7 +5320,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C142" t="n">
         <v>1.133411165083554</v>
@@ -5331,7 +5331,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C143" t="n">
         <v>1.133411165083554</v>
@@ -5342,7 +5342,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C144" t="n">
         <v>1.133411165083554</v>
@@ -5353,7 +5353,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C145" t="n">
         <v>1.133411165083554</v>
@@ -5364,7 +5364,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C146" t="n">
         <v>1.133411165083554</v>
@@ -5375,7 +5375,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C147" t="n">
         <v>1.133411165083554</v>
@@ -5386,7 +5386,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C148" t="n">
         <v>1.133411165083554</v>
@@ -5397,7 +5397,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C149" t="n">
         <v>1.133411165083554</v>
@@ -5408,7 +5408,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C150" t="n">
         <v>1.133411165083554</v>
@@ -5419,7 +5419,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C151" t="n">
         <v>1.133411165083554</v>
@@ -5430,7 +5430,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C152" t="n">
         <v>1.133411165083554</v>
@@ -5441,7 +5441,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C153" t="n">
         <v>1.133411165083554</v>
@@ -5452,7 +5452,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C154" t="n">
         <v>1.133411165083554</v>
@@ -5463,7 +5463,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C155" t="n">
         <v>1.133411165083554</v>
@@ -5474,7 +5474,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C156" t="n">
         <v>1.133411165083554</v>
@@ -5485,7 +5485,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C157" t="n">
         <v>1.133411165083554</v>
@@ -5496,7 +5496,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C158" t="n">
         <v>1.133411165083554</v>
@@ -5507,7 +5507,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C159" t="n">
         <v>1.133411165083554</v>
@@ -5518,7 +5518,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.135411302433702</v>
+        <v>1.133411165083554</v>
       </c>
       <c r="C160" t="n">
         <v>1.133411165083554</v>
@@ -5529,7 +5529,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C161" t="n">
         <v>0.9633994903210198</v>
@@ -5540,7 +5540,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C162" t="n">
         <v>0.9633994903210198</v>
@@ -5551,7 +5551,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C163" t="n">
         <v>0.9633994903210198</v>
@@ -5562,7 +5562,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C164" t="n">
         <v>0.9633994903210198</v>
@@ -5573,7 +5573,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C165" t="n">
         <v>0.9633994903210198</v>
@@ -5584,7 +5584,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C166" t="n">
         <v>0.9633994903210198</v>
@@ -5595,7 +5595,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C167" t="n">
         <v>0.9633994903210198</v>
@@ -5606,7 +5606,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C168" t="n">
         <v>0.9633994903210198</v>
@@ -5617,7 +5617,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C169" t="n">
         <v>0.9633994903210198</v>
@@ -5628,7 +5628,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C170" t="n">
         <v>0.9633994903210198</v>
@@ -5639,7 +5639,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C171" t="n">
         <v>0.9633994903210198</v>
@@ -5650,7 +5650,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C172" t="n">
         <v>0.9633994903210198</v>
@@ -5661,7 +5661,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C173" t="n">
         <v>0.9633994903210198</v>
@@ -5672,7 +5672,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C174" t="n">
         <v>0.9633994903210198</v>
@@ -5683,7 +5683,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C175" t="n">
         <v>0.9633994903210198</v>
@@ -5694,7 +5694,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C176" t="n">
         <v>0.9633994903210198</v>
@@ -5705,7 +5705,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C177" t="n">
         <v>0.9633994903210198</v>
@@ -5716,7 +5716,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C178" t="n">
         <v>0.9633994903210198</v>
@@ -5727,7 +5727,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C179" t="n">
         <v>0.9633994903210198</v>
@@ -5738,7 +5738,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.9650996070686452</v>
+        <v>0.9633994903210198</v>
       </c>
       <c r="C180" t="n">
         <v>0.9633994903210198</v>
@@ -5749,7 +5749,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C181" t="n">
         <v>0.818889566772867</v>
@@ -5760,7 +5760,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C182" t="n">
         <v>0.818889566772867</v>
@@ -5771,7 +5771,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C183" t="n">
         <v>0.818889566772867</v>
@@ -5782,7 +5782,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C184" t="n">
         <v>0.818889566772867</v>
@@ -5793,7 +5793,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C185" t="n">
         <v>0.818889566772867</v>
@@ -5804,7 +5804,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C186" t="n">
         <v>0.818889566772867</v>
@@ -5815,7 +5815,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C187" t="n">
         <v>0.818889566772867</v>
@@ -5826,7 +5826,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C188" t="n">
         <v>0.818889566772867</v>
@@ -5837,7 +5837,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C189" t="n">
         <v>0.818889566772867</v>
@@ -5848,7 +5848,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C190" t="n">
         <v>0.818889566772867</v>
@@ -5859,7 +5859,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C191" t="n">
         <v>0.818889566772867</v>
@@ -5870,7 +5870,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C192" t="n">
         <v>0.818889566772867</v>
@@ -5881,7 +5881,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C193" t="n">
         <v>0.818889566772867</v>
@@ -5892,7 +5892,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C194" t="n">
         <v>0.818889566772867</v>
@@ -5903,7 +5903,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C195" t="n">
         <v>0.818889566772867</v>
@@ -5914,7 +5914,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C196" t="n">
         <v>0.818889566772867</v>
@@ -5925,7 +5925,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C197" t="n">
         <v>0.818889566772867</v>
@@ -5936,7 +5936,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C198" t="n">
         <v>0.818889566772867</v>
@@ -5947,7 +5947,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C199" t="n">
         <v>0.818889566772867</v>
@@ -5958,7 +5958,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.8203346660083484</v>
+        <v>0.818889566772867</v>
       </c>
       <c r="C200" t="n">
         <v>0.818889566772867</v>
@@ -5969,7 +5969,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C201" t="n">
         <v>0.6960561317569345</v>
@@ -5980,7 +5980,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C202" t="n">
         <v>0.6960561317569345</v>
@@ -5991,7 +5991,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C203" t="n">
         <v>0.6960561317569345</v>
@@ -6002,7 +6002,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C204" t="n">
         <v>0.6960561317569345</v>
@@ -6013,7 +6013,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C205" t="n">
         <v>0.6960561317569345</v>
@@ -6024,7 +6024,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C206" t="n">
         <v>0.6960561317569345</v>
@@ -6035,7 +6035,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C207" t="n">
         <v>0.6960561317569345</v>
@@ -6046,7 +6046,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C208" t="n">
         <v>0.6960561317569345</v>
@@ -6057,7 +6057,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C209" t="n">
         <v>0.6960561317569345</v>
@@ -6068,7 +6068,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C210" t="n">
         <v>0.6960561317569345</v>
@@ -6079,7 +6079,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C211" t="n">
         <v>0.6960561317569345</v>
@@ -6090,7 +6090,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C212" t="n">
         <v>0.6960561317569345</v>
@@ -6101,7 +6101,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C213" t="n">
         <v>0.6960561317569345</v>
@@ -6112,7 +6112,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C214" t="n">
         <v>0.6960561317569345</v>
@@ -6123,7 +6123,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C215" t="n">
         <v>0.6960561317569345</v>
@@ -6134,7 +6134,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C216" t="n">
         <v>0.6960561317569345</v>
@@ -6145,7 +6145,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C217" t="n">
         <v>0.6960561317569345</v>
@@ -6156,7 +6156,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C218" t="n">
         <v>0.6960561317569345</v>
@@ -6167,7 +6167,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C219" t="n">
         <v>0.6960561317569345</v>
@@ -6178,7 +6178,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.6972844661070938</v>
+        <v>0.6960561317569345</v>
       </c>
       <c r="C220" t="n">
         <v>0.6960561317569345</v>
@@ -6189,7 +6189,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C221" t="n">
         <v>0.5916477119933957</v>
@@ -6200,7 +6200,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C222" t="n">
         <v>0.5916477119933957</v>
@@ -6211,7 +6211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C223" t="n">
         <v>0.5916477119933957</v>
@@ -6222,7 +6222,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C224" t="n">
         <v>0.5916477119933957</v>
@@ -6233,7 +6233,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C225" t="n">
         <v>0.5916477119933957</v>
@@ -6244,7 +6244,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C226" t="n">
         <v>0.5916477119933957</v>
@@ -6255,7 +6255,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C227" t="n">
         <v>0.5916477119933957</v>
@@ -6266,7 +6266,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C228" t="n">
         <v>0.5916477119933957</v>
@@ -6277,7 +6277,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C229" t="n">
         <v>0.5916477119933957</v>
@@ -6288,7 +6288,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C230" t="n">
         <v>0.5916477119933957</v>
@@ -6299,7 +6299,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C231" t="n">
         <v>0.5916477119933957</v>
@@ -6310,7 +6310,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C232" t="n">
         <v>0.5916477119933957</v>
@@ -6321,7 +6321,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C233" t="n">
         <v>0.5916477119933957</v>
@@ -6332,7 +6332,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C234" t="n">
         <v>0.5916477119933957</v>
@@ -6343,7 +6343,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C235" t="n">
         <v>0.5916477119933957</v>
@@ -6354,7 +6354,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C236" t="n">
         <v>0.5916477119933957</v>
@@ -6365,7 +6365,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C237" t="n">
         <v>0.5916477119933957</v>
@@ -6376,7 +6376,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C238" t="n">
         <v>0.5916477119933957</v>
@@ -6387,7 +6387,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C239" t="n">
         <v>0.5916477119933957</v>
@@ -6398,7 +6398,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.5926917961910312</v>
+        <v>0.5916477119933957</v>
       </c>
       <c r="C240" t="n">
         <v>0.5916477119933957</v>
@@ -6409,7 +6409,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C241" t="n">
         <v>0.5029005551943867</v>
@@ -6420,7 +6420,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C242" t="n">
         <v>0.5029005551943867</v>
@@ -6431,7 +6431,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C243" t="n">
         <v>0.5029005551943867</v>
@@ -6442,7 +6442,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C244" t="n">
         <v>0.5029005551943867</v>
@@ -6453,7 +6453,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C245" t="n">
         <v>0.5029005551943867</v>
@@ -6464,7 +6464,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C246" t="n">
         <v>0.5029005551943867</v>
@@ -6475,7 +6475,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C247" t="n">
         <v>0.5029005551943867</v>
@@ -6486,7 +6486,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C248" t="n">
         <v>0.5029005551943867</v>
@@ -6497,7 +6497,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C249" t="n">
         <v>0.5029005551943867</v>
@@ -6508,7 +6508,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C250" t="n">
         <v>0.5029005551943867</v>
@@ -6519,7 +6519,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C251" t="n">
         <v>0.5029005551943867</v>
@@ -6530,7 +6530,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C252" t="n">
         <v>0.5029005551943867</v>
@@ -6541,7 +6541,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C253" t="n">
         <v>0.5029005551943867</v>
@@ -6552,7 +6552,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C254" t="n">
         <v>0.5029005551943867</v>
@@ -6563,7 +6563,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C255" t="n">
         <v>0.5029005551943867</v>
@@ -6574,7 +6574,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C256" t="n">
         <v>0.5029005551943867</v>
@@ -6585,7 +6585,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C257" t="n">
         <v>0.5029005551943867</v>
@@ -6596,7 +6596,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C258" t="n">
         <v>0.5029005551943867</v>
@@ -6607,7 +6607,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C259" t="n">
         <v>0.5029005551943867</v>
@@ -6618,7 +6618,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.5037880267623769</v>
+        <v>0.5029005551943867</v>
       </c>
       <c r="C260" t="n">
         <v>0.5029005551943867</v>
@@ -6629,7 +6629,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C261" t="n">
         <v>0.4274654719152273</v>
@@ -6640,7 +6640,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C262" t="n">
         <v>0.4274654719152273</v>
@@ -6651,7 +6651,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C263" t="n">
         <v>0.4274654719152273</v>
@@ -6662,7 +6662,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C264" t="n">
         <v>0.4274654719152273</v>
@@ -6673,7 +6673,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C265" t="n">
         <v>0.4274654719152273</v>
@@ -6684,7 +6684,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C266" t="n">
         <v>0.4274654719152273</v>
@@ -6695,7 +6695,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C267" t="n">
         <v>0.4274654719152273</v>
@@ -6706,7 +6706,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C268" t="n">
         <v>0.4274654719152273</v>
@@ -6717,7 +6717,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C269" t="n">
         <v>0.4274654719152273</v>
@@ -6728,7 +6728,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C270" t="n">
         <v>0.4274654719152273</v>
@@ -6739,7 +6739,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C271" t="n">
         <v>0.4274654719152273</v>
@@ -6750,7 +6750,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C272" t="n">
         <v>0.4274654719152273</v>
@@ -6761,7 +6761,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C273" t="n">
         <v>0.4274654719152273</v>
@@ -6772,7 +6772,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C274" t="n">
         <v>0.4274654719152273</v>
@@ -6783,7 +6783,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C275" t="n">
         <v>0.4274654719152273</v>
@@ -6794,7 +6794,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C276" t="n">
         <v>0.4274654719152273</v>
@@ -6805,7 +6805,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C277" t="n">
         <v>0.4274654719152273</v>
@@ -6816,7 +6816,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C278" t="n">
         <v>0.4274654719152273</v>
@@ -6827,7 +6827,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C279" t="n">
         <v>0.4274654719152273</v>
@@ -6838,7 +6838,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>0.4282198227480189</v>
+        <v>0.4274654719152273</v>
       </c>
       <c r="C280" t="n">
         <v>0.4274654719152273</v>
@@ -6849,7 +6849,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C281" t="n">
         <v>0.3633456511279436</v>
@@ -6860,7 +6860,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C282" t="n">
         <v>0.3633456511279436</v>
@@ -6871,7 +6871,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C283" t="n">
         <v>0.3633456511279436</v>
@@ -6882,7 +6882,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C284" t="n">
         <v>0.3633456511279436</v>
@@ -6893,7 +6893,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C285" t="n">
         <v>0.3633456511279436</v>
@@ -6904,7 +6904,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C286" t="n">
         <v>0.3633456511279436</v>
@@ -6915,7 +6915,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C287" t="n">
         <v>0.3633456511279436</v>
@@ -6926,7 +6926,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C288" t="n">
         <v>0.3633456511279436</v>
@@ -6937,7 +6937,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C289" t="n">
         <v>0.3633456511279436</v>
@@ -6948,7 +6948,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C290" t="n">
         <v>0.3633456511279436</v>
@@ -6959,7 +6959,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C291" t="n">
         <v>0.3633456511279436</v>
@@ -6970,7 +6970,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C292" t="n">
         <v>0.3633456511279436</v>
@@ -6981,7 +6981,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C293" t="n">
         <v>0.3633456511279436</v>
@@ -6992,7 +6992,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C294" t="n">
         <v>0.3633456511279436</v>
@@ -7003,7 +7003,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C295" t="n">
         <v>0.3633456511279436</v>
@@ -7014,7 +7014,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C296" t="n">
         <v>0.3633456511279436</v>
@@ -7025,7 +7025,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C297" t="n">
         <v>0.3633456511279436</v>
@@ -7036,7 +7036,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C298" t="n">
         <v>0.3633456511279436</v>
@@ -7047,7 +7047,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C299" t="n">
         <v>0.3633456511279436</v>
@@ -7058,7 +7058,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>0.3639868493358164</v>
+        <v>0.3633456511279436</v>
       </c>
       <c r="C300" t="n">
         <v>0.3633456511279436</v>
@@ -7069,7 +7069,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>0.309388821935445</v>
+        <v>0.3088438034587531</v>
       </c>
       <c r="C301" t="n">
         <v>0.3088438034587531</v>
